--- a/pc1_returns_monthly_filled.xlsx
+++ b/pc1_returns_monthly_filled.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\factors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE3ADEA-14A4-4CD0-87D6-826E6E0FD421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4770" yWindow="1515" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +128,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,14 +425,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64:L65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,1786 +472,1786 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>39752</v>
       </c>
       <c r="F2">
-        <v>-0.1130618380035806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>-0.11306183800358061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39782</v>
       </c>
       <c r="F3">
-        <v>-0.1130618380035806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>-0.11306183800358061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39813</v>
       </c>
       <c r="F4">
-        <v>-0.02051793238499784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>-2.0517932384997838E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>39844</v>
       </c>
       <c r="F5">
-        <v>-0.02051793238499784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>-2.0517932384997838E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39872</v>
       </c>
       <c r="F6">
-        <v>-0.02051793238499784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>-2.0517932384997838E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39903</v>
       </c>
       <c r="F7">
-        <v>0.02951324379221559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.951324379221559E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>39933</v>
       </c>
       <c r="F8">
-        <v>0.01385757844561354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.385757844561354E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39964</v>
       </c>
       <c r="F9">
-        <v>0.01385757844561354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.385757844561354E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39994</v>
       </c>
       <c r="F10">
-        <v>-0.005823687316086163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>-5.8236873160861626E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40025</v>
       </c>
       <c r="F11">
-        <v>0.02526841162606532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2.5268411626065319E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40056</v>
       </c>
       <c r="F12">
-        <v>0.01597675364330933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.5976753643309329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40086</v>
       </c>
       <c r="F13">
-        <v>-0.001024324087393529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>-1.0243240873935289E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40117</v>
       </c>
       <c r="F14">
-        <v>-0.001024324087393529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>-1.0243240873935289E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40147</v>
       </c>
       <c r="F15">
-        <v>0.02402738610217778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2.4027386102177781E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40178</v>
       </c>
       <c r="F16">
-        <v>0.009265788055368106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>9.2657880553681064E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>40209</v>
       </c>
       <c r="F17">
-        <v>0.009265788055368106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>9.2657880553681064E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>40237</v>
       </c>
       <c r="F18">
-        <v>0.009265788055368106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>9.2657880553681064E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>40268</v>
       </c>
       <c r="F19">
-        <v>0.007778503054165969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>7.7785030541659694E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>40298</v>
       </c>
       <c r="F20">
-        <v>0.01040746264155216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>1.040746264155216E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40329</v>
       </c>
       <c r="F21">
-        <v>-0.03723774284692558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-3.7237742846925583E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40359</v>
       </c>
       <c r="F22">
-        <v>-0.004627220249229217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-4.6272202492292167E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40390</v>
       </c>
       <c r="F23">
-        <v>-0.004627220249229217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-4.6272202492292167E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40421</v>
       </c>
       <c r="F24">
-        <v>-0.002393201176125087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-2.3932011761250869E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40451</v>
       </c>
       <c r="F25">
-        <v>0.0383241150347952</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>3.83241150347952E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40482</v>
       </c>
       <c r="F26">
-        <v>0.0383241150347952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>3.83241150347952E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40512</v>
       </c>
       <c r="F27">
-        <v>0.002666716646781755</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>2.6667166467817549E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40543</v>
       </c>
       <c r="F28">
-        <v>0.04934836410839399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>4.9348364108393987E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40574</v>
       </c>
       <c r="F29">
-        <v>0.00728387290007692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>7.2838729000769204E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40602</v>
       </c>
       <c r="F30">
-        <v>0.01613844271791651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1.613844271791651E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>40633</v>
       </c>
       <c r="F31">
-        <v>0.005221162222545403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>5.2211622225454028E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>40663</v>
       </c>
       <c r="F32">
-        <v>0.005221162222545403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>5.2211622225454028E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>40694</v>
       </c>
       <c r="F33">
-        <v>-0.02359847766473294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-2.3598477664732938E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>40724</v>
       </c>
       <c r="F34">
-        <v>-0.02280140289274748</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-2.2801402892747479E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>40755</v>
       </c>
       <c r="F35">
-        <v>-0.02280140289274748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-2.2801402892747479E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>40786</v>
       </c>
       <c r="F36">
-        <v>0.0009184679008752482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>9.1846790087524817E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>40816</v>
       </c>
       <c r="F37">
-        <v>-0.08131298992734806</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>-8.1312989927348062E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>40847</v>
       </c>
       <c r="F38">
-        <v>0.03753139686890933</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>3.7531396868909328E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>40877</v>
       </c>
       <c r="F39">
-        <v>-0.01248629808266653</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-1.248629808266653E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>40908</v>
       </c>
       <c r="F40">
-        <v>-0.01248629808266653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-1.248629808266653E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40939</v>
       </c>
       <c r="F41">
-        <v>0.02791195909939137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>2.791195909939137E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40968</v>
       </c>
       <c r="E42">
-        <v>-0.0005507539239009541</v>
+        <v>-5.5075392390095408E-4</v>
       </c>
       <c r="F42">
-        <v>0.01419841594292384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>1.419841594292384E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40999</v>
       </c>
       <c r="E43">
-        <v>-0.00174968364872511</v>
+        <v>-1.74968364872511E-3</v>
       </c>
       <c r="F43">
-        <v>0.01419841594292384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>1.419841594292384E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41029</v>
       </c>
       <c r="E44">
-        <v>0.002224114845737814</v>
+        <v>2.2241148457378141E-3</v>
       </c>
       <c r="F44">
-        <v>-0.003410317893845756</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-3.410317893845756E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41060</v>
       </c>
       <c r="E45">
-        <v>-0.01415810982343506</v>
+        <v>-1.415810982343506E-2</v>
       </c>
       <c r="F45">
-        <v>-0.04929854788955215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>-4.9298547889552152E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41090</v>
       </c>
       <c r="E46">
-        <v>0.0005074684717121629</v>
+        <v>5.0746847171216289E-4</v>
       </c>
       <c r="F46">
-        <v>-0.04929854788955215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-4.9298547889552152E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41121</v>
       </c>
       <c r="E47">
-        <v>0.0005074684717121629</v>
+        <v>5.0746847171216289E-4</v>
       </c>
       <c r="F47">
-        <v>0.01640183855246625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>1.6401838552466248E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41152</v>
       </c>
       <c r="E48">
-        <v>0.005520259211875722</v>
+        <v>5.5202592118757223E-3</v>
       </c>
       <c r="F48">
-        <v>0.01533328100561308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1.533328100561308E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41182</v>
       </c>
       <c r="E49">
-        <v>0.003107819941044044</v>
+        <v>3.1078199410440439E-3</v>
       </c>
       <c r="F49">
-        <v>0.01533328100561308</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>1.533328100561308E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41213</v>
       </c>
       <c r="E50">
-        <v>-0.001638564719442179</v>
+        <v>-1.6385647194421789E-3</v>
       </c>
       <c r="F50">
-        <v>-0.02199533897799877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-2.1995338977998768E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41243</v>
       </c>
       <c r="E51">
-        <v>0.003451866245568081</v>
+        <v>3.4518662455680811E-3</v>
       </c>
       <c r="F51">
-        <v>0.004561184834651288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>4.5611848346512884E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41274</v>
       </c>
       <c r="E52">
-        <v>0.009367230776726359</v>
+        <v>9.3672307767263593E-3</v>
       </c>
       <c r="F52">
-        <v>-0.01018503350363288</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-1.018503350363288E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41305</v>
       </c>
       <c r="E53">
-        <v>0.007653100779044707</v>
+        <v>7.6531007790447067E-3</v>
       </c>
       <c r="F53">
-        <v>0.00777322700374637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>7.7732270037463701E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41333</v>
       </c>
       <c r="E54">
-        <v>-0.005616430395101841</v>
+        <v>-5.6164303951018414E-3</v>
       </c>
       <c r="F54">
-        <v>-0.01610147637311178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-1.6101476373111781E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41364</v>
       </c>
       <c r="E55">
-        <v>0.003234397351956821</v>
+        <v>3.2343973519568209E-3</v>
       </c>
       <c r="F55">
-        <v>-0.01610147637311178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-1.6101476373111781E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41394</v>
       </c>
       <c r="E56">
-        <v>-4.588845073140027E-05</v>
+        <v>-4.5888450731400268E-5</v>
       </c>
       <c r="F56">
-        <v>-0.02791129573307789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-2.7911295733077889E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41425</v>
       </c>
       <c r="E57">
-        <v>-0.00667133196552854</v>
+        <v>-6.6713319655285399E-3</v>
       </c>
       <c r="F57">
-        <v>-0.0007480132271085841</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-7.4801322710858406E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41455</v>
       </c>
       <c r="E58">
-        <v>-0.009431352877329055</v>
+        <v>-9.4313528773290554E-3</v>
       </c>
       <c r="F58">
-        <v>-0.0007480132271085841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-7.4801322710858406E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41486</v>
       </c>
       <c r="E59">
-        <v>0.004347388163494803</v>
+        <v>4.3473881634948034E-3</v>
       </c>
       <c r="F59">
-        <v>0.01032480576548505</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>1.032480576548505E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41517</v>
       </c>
       <c r="E60">
-        <v>-0.004429139306246267</v>
+        <v>-4.4291393062462674E-3</v>
       </c>
       <c r="F60">
-        <v>0.01032480576548505</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>1.032480576548505E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41547</v>
       </c>
       <c r="E61">
-        <v>0.01258953965268076</v>
+        <v>1.258953965268076E-2</v>
       </c>
       <c r="F61">
-        <v>-0.006887371413076337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-6.8873714130763368E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41578</v>
       </c>
       <c r="E62">
-        <v>0.005654737747401276</v>
+        <v>5.6547377474012762E-3</v>
       </c>
       <c r="F62">
-        <v>-0.005695267738048998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-5.6952677380489982E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41608</v>
       </c>
       <c r="E63">
-        <v>-0.002785004512250138</v>
+        <v>-2.7850045122501379E-3</v>
       </c>
       <c r="F63">
-        <v>-0.005695267738048998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-5.6952677380489982E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41639</v>
       </c>
       <c r="E64">
-        <v>0.000797525897790954</v>
+        <v>7.9752589779095398E-4</v>
       </c>
       <c r="F64">
-        <v>0.005696007884319261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>5.6960078843192614E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41670</v>
       </c>
       <c r="E65">
-        <v>-0.00254862626814142</v>
+        <v>-2.5486262681414201E-3</v>
       </c>
       <c r="F65">
-        <v>-0.005943488585144631</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>-5.9434885851446309E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41698</v>
       </c>
       <c r="E66">
-        <v>0.01965797699476724</v>
+        <v>1.9657976994767241E-2</v>
       </c>
       <c r="F66">
-        <v>0.02570653247622361</v>
+        <v>2.570653247622361E-2</v>
       </c>
       <c r="L66">
-        <v>0.03380974990451175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>3.380974990451175E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41729</v>
       </c>
       <c r="E67">
-        <v>-0.001256602165024373</v>
+        <v>-1.256602165024373E-3</v>
       </c>
       <c r="F67">
-        <v>-0.007556539262964147</v>
+        <v>-7.5565392629641471E-3</v>
       </c>
       <c r="L67">
-        <v>-0.01966616207257295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>-1.9666162072572949E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41759</v>
       </c>
       <c r="E68">
-        <v>0.003058659548160746</v>
+        <v>3.058659548160746E-3</v>
       </c>
       <c r="F68">
-        <v>0.007728748279481756</v>
+        <v>7.728748279481756E-3</v>
       </c>
       <c r="L68">
-        <v>-0.01769688406137827</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>-1.769688406137827E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41790</v>
       </c>
       <c r="E69">
-        <v>0.004255211428304459</v>
+        <v>4.2552114283044588E-3</v>
       </c>
       <c r="F69">
-        <v>0.007728748279481756</v>
+        <v>7.728748279481756E-3</v>
       </c>
       <c r="L69">
-        <v>-0.01769688406137827</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>-1.769688406137827E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41820</v>
       </c>
       <c r="E70">
-        <v>0.008548089277259991</v>
+        <v>8.548089277259991E-3</v>
       </c>
       <c r="F70">
-        <v>0.00737521965371047</v>
+        <v>7.37521965371047E-3</v>
       </c>
       <c r="L70">
-        <v>0.01369199897890251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>1.369199897890251E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41851</v>
       </c>
       <c r="E71">
-        <v>-0.01091882656086014</v>
+        <v>-1.0918826560860141E-2</v>
       </c>
       <c r="F71">
-        <v>-0.01465621121289262</v>
+        <v>-1.4656211212892621E-2</v>
       </c>
       <c r="L71">
-        <v>-0.02186472677999233</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>-2.1864726779992329E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41882</v>
       </c>
       <c r="E72">
-        <v>0.005245813906970943</v>
+        <v>5.245813906970943E-3</v>
       </c>
       <c r="F72">
-        <v>-0.01465621121289262</v>
+        <v>-1.4656211212892621E-2</v>
       </c>
       <c r="L72">
-        <v>-0.02186472677999233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>-2.1864726779992329E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41912</v>
       </c>
       <c r="E73">
-        <v>-0.0180534685645322</v>
+        <v>-1.8053468564532198E-2</v>
       </c>
       <c r="F73">
-        <v>-0.03413445199138257</v>
+        <v>-3.4134451991382569E-2</v>
       </c>
       <c r="L73">
-        <v>-0.02633065600032398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>-2.6330656000323981E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41943</v>
       </c>
       <c r="E74">
-        <v>0.0017422829825056</v>
+        <v>1.7422829825056E-3</v>
       </c>
       <c r="F74">
-        <v>-0.001207815103434207</v>
+        <v>-1.207815103434207E-3</v>
       </c>
       <c r="L74">
-        <v>0.002680718302358269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>2.680718302358269E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41973</v>
       </c>
       <c r="E75">
-        <v>-0.001234191529190497</v>
+        <v>-1.2341915291904969E-3</v>
       </c>
       <c r="F75">
-        <v>-0.001207815103434207</v>
+        <v>-1.207815103434207E-3</v>
       </c>
       <c r="L75">
-        <v>0.002680718302358269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>2.680718302358269E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42004</v>
       </c>
       <c r="E76">
-        <v>-0.004704941815056345</v>
+        <v>-4.7049418150563451E-3</v>
       </c>
       <c r="F76">
-        <v>-0.02452631699243319</v>
+        <v>-2.4526316992433191E-2</v>
       </c>
       <c r="L76">
-        <v>-0.009886018054775465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>-9.8860180547754653E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42035</v>
       </c>
       <c r="E77">
-        <v>-0.002054823156505834</v>
+        <v>-2.0548231565058338E-3</v>
       </c>
       <c r="F77">
-        <v>-0.02452631699243319</v>
+        <v>-2.4526316992433191E-2</v>
       </c>
       <c r="L77">
-        <v>-0.009886018054775465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>-9.8860180547754653E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42063</v>
       </c>
       <c r="E78">
-        <v>0.003556485490447752</v>
+        <v>3.5564854904477521E-3</v>
       </c>
       <c r="F78">
-        <v>-0.02452631699243319</v>
+        <v>-2.4526316992433191E-2</v>
       </c>
       <c r="L78">
-        <v>-0.009886018054775465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>-9.8860180547754653E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42094</v>
       </c>
       <c r="E79">
-        <v>-0.004425373072939126</v>
+        <v>-4.4253730729391259E-3</v>
       </c>
       <c r="F79">
-        <v>-0.01732745349460747</v>
+        <v>-1.7327453494607469E-2</v>
       </c>
       <c r="L79">
-        <v>-0.006485188603538764</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>-6.4851886035387643E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42124</v>
       </c>
       <c r="E80">
-        <v>0.006676070806739844</v>
+        <v>6.6760708067398443E-3</v>
       </c>
       <c r="F80">
-        <v>0.02638604115386232</v>
+        <v>2.6386041153862321E-2</v>
       </c>
       <c r="G80">
-        <v>0.007863342380350918</v>
+        <v>7.863342380350918E-3</v>
       </c>
       <c r="L80">
-        <v>-0.01272437486260535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>-1.272437486260535E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42155</v>
       </c>
       <c r="E81">
-        <v>-0.004377224680849411</v>
+        <v>-4.3772246808494106E-3</v>
       </c>
       <c r="F81">
-        <v>0.02638604115386232</v>
+        <v>2.6386041153862321E-2</v>
       </c>
       <c r="G81">
-        <v>0.007863342380350918</v>
+        <v>7.863342380350918E-3</v>
       </c>
       <c r="L81">
-        <v>-0.01272437486260535</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>-1.272437486260535E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42185</v>
       </c>
       <c r="E82">
-        <v>-0.007361337154579143</v>
+        <v>-7.3613371545791428E-3</v>
       </c>
       <c r="F82">
-        <v>0.000548960060407188</v>
+        <v>5.4896006040718796E-4</v>
       </c>
       <c r="G82">
-        <v>-0.0140205971583296</v>
+        <v>-1.40205971583296E-2</v>
       </c>
       <c r="L82">
-        <v>-0.01910227607892005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>-1.9102276078920049E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42216</v>
       </c>
       <c r="E83">
-        <v>2.780251616079574E-05</v>
+        <v>2.7802516160795741E-5</v>
       </c>
       <c r="F83">
-        <v>-0.04707925044789976</v>
+        <v>-4.7079250447899762E-2</v>
       </c>
       <c r="G83">
-        <v>0.002389467892169421</v>
+        <v>2.389467892169421E-3</v>
       </c>
       <c r="L83">
-        <v>0.01032548654683081</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>1.032548654683081E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42247</v>
       </c>
       <c r="E84">
-        <v>-0.01694810959453157</v>
+        <v>-1.6948109594531569E-2</v>
       </c>
       <c r="F84">
-        <v>-0.004312705326561148</v>
+        <v>-4.3127053265611479E-3</v>
       </c>
       <c r="G84">
-        <v>-0.0351707497168338</v>
+        <v>-3.5170749716833802E-2</v>
       </c>
       <c r="L84">
-        <v>-0.05624342942890834</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>-5.6243429428908337E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42277</v>
       </c>
       <c r="E85">
-        <v>-0.01370562499863108</v>
+        <v>-1.370562499863108E-2</v>
       </c>
       <c r="F85">
-        <v>-0.01011804693978958</v>
+        <v>-1.011804693978958E-2</v>
       </c>
       <c r="G85">
-        <v>-0.02152134605345232</v>
+        <v>-2.1521346053452319E-2</v>
       </c>
       <c r="L85">
-        <v>-0.03474240774434873</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>-3.4742407744348731E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42308</v>
       </c>
       <c r="E86">
-        <v>0.01086933670254023</v>
+        <v>1.0869336702540229E-2</v>
       </c>
       <c r="F86">
-        <v>-0.01011804693978958</v>
+        <v>-1.011804693978958E-2</v>
       </c>
       <c r="G86">
-        <v>0.03568199889408133</v>
+        <v>3.5681998894081329E-2</v>
       </c>
       <c r="L86">
-        <v>-0.03474240774434873</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>-3.4742407744348731E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42338</v>
       </c>
       <c r="E87">
-        <v>-0.00151263283453365</v>
+        <v>-1.5126328345336499E-3</v>
       </c>
       <c r="F87">
-        <v>-0.03574097998262944</v>
+        <v>-3.5740979982629442E-2</v>
       </c>
       <c r="G87">
-        <v>-0.007442515943481431</v>
+        <v>-7.4425159434814312E-3</v>
       </c>
       <c r="L87">
-        <v>0.0007768828880867412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>7.768828880867412E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42369</v>
       </c>
       <c r="E88">
-        <v>-0.01372545984280637</v>
+        <v>-1.372545984280637E-2</v>
       </c>
       <c r="F88">
-        <v>-0.01118824379037375</v>
+        <v>-1.118824379037375E-2</v>
       </c>
       <c r="G88">
-        <v>-0.01431693205585827</v>
+        <v>-1.431693205585827E-2</v>
       </c>
       <c r="L88">
-        <v>-0.01934074634573157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>-1.9340746345731571E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42400</v>
       </c>
       <c r="E89">
-        <v>-0.009106099688768824</v>
+        <v>-9.1060996887688244E-3</v>
       </c>
       <c r="F89">
-        <v>-0.01118824379037375</v>
+        <v>-1.118824379037375E-2</v>
       </c>
       <c r="G89">
-        <v>-0.02649688222909492</v>
+        <v>-2.6496882229094919E-2</v>
       </c>
       <c r="L89">
-        <v>-0.01934074634573157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>-1.9340746345731571E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42429</v>
       </c>
       <c r="E90">
-        <v>0.00244543223992923</v>
+        <v>2.4454322399292301E-3</v>
       </c>
       <c r="F90">
-        <v>0.001587271900191861</v>
+        <v>1.5872719001918611E-3</v>
       </c>
       <c r="G90">
-        <v>-0.00495258933044216</v>
+        <v>-4.95258933044216E-3</v>
       </c>
       <c r="L90">
-        <v>-0.01071243227779861</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>-1.071243227779861E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42460</v>
       </c>
       <c r="E91">
-        <v>0.02789358019129148</v>
+        <v>2.789358019129148E-2</v>
       </c>
       <c r="F91">
-        <v>0.01645139051993907</v>
+        <v>1.6451390519939071E-2</v>
       </c>
       <c r="G91">
-        <v>0.03202825023333113</v>
+        <v>3.2028250233331133E-2</v>
       </c>
       <c r="L91">
-        <v>0.0433272494487183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>4.3327249448718297E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42490</v>
       </c>
       <c r="E92">
-        <v>0.005915056865181555</v>
+        <v>5.915056865181555E-3</v>
       </c>
       <c r="F92">
-        <v>0.01645139051993907</v>
+        <v>1.6451390519939071E-2</v>
       </c>
       <c r="G92">
-        <v>0.002142361268736863</v>
+        <v>2.1423612687368628E-3</v>
       </c>
       <c r="L92">
-        <v>0.0433272494487183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>4.3327249448718297E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42521</v>
       </c>
       <c r="E93">
-        <v>0.0006298369511668321</v>
+        <v>6.2983695116683208E-4</v>
       </c>
       <c r="F93">
-        <v>-0.01054889433208761</v>
+        <v>-1.0548894332087611E-2</v>
       </c>
       <c r="G93">
-        <v>-0.003188683930175686</v>
+        <v>-3.1886839301756859E-3</v>
       </c>
       <c r="L93">
-        <v>0.01068092947549079</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>1.068092947549079E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42551</v>
       </c>
       <c r="E94">
-        <v>-0.002072697961848314</v>
+        <v>-2.0726979618483142E-3</v>
       </c>
       <c r="F94">
-        <v>0.01465867015060254</v>
+        <v>1.465867015060254E-2</v>
       </c>
       <c r="G94">
-        <v>-0.003927764958626203</v>
+        <v>-3.927764958626203E-3</v>
       </c>
       <c r="L94">
-        <v>-0.003546149955947127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>-3.5461499559471272E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42582</v>
       </c>
       <c r="E95">
-        <v>0.004630748004244588</v>
+        <v>4.6307480042445878E-3</v>
       </c>
       <c r="F95">
-        <v>0.01465867015060254</v>
+        <v>1.465867015060254E-2</v>
       </c>
       <c r="G95">
-        <v>0.01325106861966688</v>
+        <v>1.325106861966688E-2</v>
       </c>
       <c r="L95">
-        <v>-0.003546149955947127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>-3.5461499559471272E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42613</v>
       </c>
       <c r="E96">
-        <v>0.006335293741583216</v>
+        <v>6.3352937415832164E-3</v>
       </c>
       <c r="F96">
-        <v>-0.01169933435580617</v>
+        <v>-1.169933435580617E-2</v>
       </c>
       <c r="G96">
-        <v>-0.007946932421735619</v>
+        <v>-7.946932421735619E-3</v>
       </c>
       <c r="L96">
-        <v>-0.0152137371388379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>-1.5213737138837899E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42643</v>
       </c>
       <c r="E97">
-        <v>-0.0002981739897007045</v>
+        <v>-2.9817398970070452E-4</v>
       </c>
       <c r="F97">
-        <v>0.01927757194427093</v>
+        <v>1.9277571944270929E-2</v>
       </c>
       <c r="G97">
-        <v>-0.001273481582580885</v>
+        <v>-1.2734815825808849E-3</v>
       </c>
       <c r="L97">
-        <v>0.002108378219917992</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>2.108378219917992E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42674</v>
       </c>
       <c r="E98">
-        <v>-0.01126881309165172</v>
+        <v>-1.126881309165172E-2</v>
       </c>
       <c r="F98">
-        <v>-0.001933069237191646</v>
+        <v>-1.933069237191646E-3</v>
       </c>
       <c r="G98">
-        <v>-0.01589407517735317</v>
+        <v>-1.5894075177353171E-2</v>
       </c>
       <c r="L98">
-        <v>-0.02766905200167075</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>-2.766905200167075E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42704</v>
       </c>
       <c r="E99">
-        <v>0.01401289333413209</v>
+        <v>1.401289333413209E-2</v>
       </c>
       <c r="F99">
-        <v>0.01492947093645442</v>
+        <v>1.4929470936454419E-2</v>
       </c>
       <c r="G99">
-        <v>-0.002857291404930896</v>
+        <v>-2.8572914049308962E-3</v>
       </c>
       <c r="L99">
-        <v>0.01250898160250677</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>1.2508981602506771E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42735</v>
       </c>
       <c r="E100">
-        <v>-0.0001582296912723758</v>
+        <v>-1.5822969127237581E-4</v>
       </c>
       <c r="F100">
-        <v>0.01492947093645442</v>
+        <v>1.4929470936454419E-2</v>
       </c>
       <c r="G100">
-        <v>0.01014762034354521</v>
+        <v>1.0147620343545209E-2</v>
       </c>
       <c r="L100">
-        <v>0.01250898160250677</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>1.2508981602506771E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42766</v>
       </c>
       <c r="B101">
-        <v>0.02177929709991796</v>
+        <v>2.1779297099917959E-2</v>
       </c>
       <c r="E101">
-        <v>0.009287383876097587</v>
+        <v>9.2873838760975866E-3</v>
       </c>
       <c r="F101">
-        <v>0.01143652117749993</v>
+        <v>1.143652117749993E-2</v>
       </c>
       <c r="G101">
-        <v>0.006339792207763571</v>
+        <v>6.3397922077635706E-3</v>
       </c>
       <c r="L101">
-        <v>0.01623913491177874</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>1.6239134911778742E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42794</v>
       </c>
       <c r="B102">
-        <v>0.02602503161944661</v>
+        <v>2.6025031619446609E-2</v>
       </c>
       <c r="E102">
-        <v>0.006675963206298144</v>
+        <v>6.6759632062981444E-3</v>
       </c>
       <c r="F102">
-        <v>0.00430900220932801</v>
+        <v>4.3090022093280099E-3</v>
       </c>
       <c r="G102">
-        <v>0.01005711819513233</v>
+        <v>1.0057118195132331E-2</v>
       </c>
       <c r="L102">
-        <v>0.01400672392331229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>1.400672392331229E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42825</v>
       </c>
       <c r="B103">
-        <v>0.0004842449938244811</v>
+        <v>4.8424499382448109E-4</v>
       </c>
       <c r="E103">
-        <v>-0.003147597496360118</v>
+        <v>-3.1475974963601182E-3</v>
       </c>
       <c r="F103">
-        <v>-0.01380049845638474</v>
+        <v>-1.380049845638474E-2</v>
       </c>
       <c r="G103">
-        <v>0.003778829662382539</v>
+        <v>3.7788296623825391E-3</v>
       </c>
       <c r="H103">
-        <v>-0.001510802745844431</v>
+        <v>-1.510802745844431E-3</v>
       </c>
       <c r="L103">
-        <v>0.001248422386029613</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>1.2484223860296129E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42855</v>
       </c>
       <c r="B104">
-        <v>0.006927652553752226</v>
+        <v>6.9276525537522258E-3</v>
       </c>
       <c r="E104">
-        <v>0.003587288646754677</v>
+        <v>3.5872886467546768E-3</v>
       </c>
       <c r="F104">
-        <v>-0.01380049845638474</v>
+        <v>-1.380049845638474E-2</v>
       </c>
       <c r="G104">
-        <v>0.003927479156667964</v>
+        <v>3.9274791566679644E-3</v>
       </c>
       <c r="H104">
-        <v>-0.0007124492586290149</v>
+        <v>-7.1244925862901489E-4</v>
       </c>
       <c r="L104">
-        <v>0.001248422386029613</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>1.2484223860296129E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42886</v>
       </c>
       <c r="B105">
-        <v>0.01129392346362804</v>
+        <v>1.129392346362804E-2</v>
       </c>
       <c r="E105">
-        <v>0.0004208231753012435</v>
+        <v>4.2082317530124348E-4</v>
       </c>
       <c r="F105">
-        <v>-0.004555925449406848</v>
+        <v>-4.5559254494068483E-3</v>
       </c>
       <c r="G105">
-        <v>0.01188741747815907</v>
+        <v>1.188741747815907E-2</v>
       </c>
       <c r="H105">
-        <v>-0.005311301808783399</v>
+        <v>-5.3113018087833988E-3</v>
       </c>
       <c r="L105">
-        <v>0.005003299754608308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>5.0032997546083082E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42916</v>
       </c>
       <c r="B106">
-        <v>-0.008216969662416756</v>
+        <v>-8.2169696624167562E-3</v>
       </c>
       <c r="E106">
-        <v>-0.003788478678389285</v>
+        <v>-3.7884786783892849E-3</v>
       </c>
       <c r="F106">
-        <v>0.00217856878360461</v>
+        <v>2.1785687836046101E-3</v>
       </c>
       <c r="G106">
-        <v>-0.006906909658179818</v>
+        <v>-6.9069096581798181E-3</v>
       </c>
       <c r="H106">
-        <v>0.004687550964526805</v>
+        <v>4.6875509645268052E-3</v>
       </c>
       <c r="I106">
-        <v>0.002891516170032946</v>
+        <v>2.8915161700329458E-3</v>
       </c>
       <c r="L106">
-        <v>-0.001069451695871597</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>-1.069451695871597E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42947</v>
       </c>
       <c r="B107">
-        <v>0.01182886545850014</v>
+        <v>1.182886545850014E-2</v>
       </c>
       <c r="E107">
-        <v>0.006584020128641109</v>
+        <v>6.5840201286411094E-3</v>
       </c>
       <c r="F107">
-        <v>0.0150607980938867</v>
+        <v>1.5060798093886701E-2</v>
       </c>
       <c r="G107">
-        <v>0.007309475764954768</v>
+        <v>7.3094757649547681E-3</v>
       </c>
       <c r="H107">
-        <v>-0.0005105596550705473</v>
+        <v>-5.1055965507054734E-4</v>
       </c>
       <c r="I107">
-        <v>0.01272212427591018</v>
+        <v>1.272212427591018E-2</v>
       </c>
       <c r="L107">
-        <v>0.01539406787498994</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>1.5394067874989941E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42978</v>
       </c>
       <c r="B108">
-        <v>-0.002738030629357013</v>
+        <v>-2.7380306293570129E-3</v>
       </c>
       <c r="E108">
-        <v>0.0009590990781999136</v>
+        <v>9.590990781999136E-4</v>
       </c>
       <c r="F108">
-        <v>0.009633001331103359</v>
+        <v>9.6330013311033587E-3</v>
       </c>
       <c r="G108">
-        <v>-0.00138433982834984</v>
+        <v>-1.3843398283498399E-3</v>
       </c>
       <c r="H108">
-        <v>-0.006815190310668667</v>
+        <v>-6.8151903106686666E-3</v>
       </c>
       <c r="I108">
-        <v>-0.001068286018111943</v>
+        <v>-1.068286018111943E-3</v>
       </c>
       <c r="J108">
-        <v>-0.004205221108340738</v>
+        <v>-4.2052211083407377E-3</v>
       </c>
       <c r="L108">
-        <v>-0.001910366015244869</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>-1.9103660152448691E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43008</v>
       </c>
       <c r="B109">
-        <v>0.006448430014793458</v>
+        <v>6.4484300147934579E-3</v>
       </c>
       <c r="D109">
-        <v>0.00487720039581674</v>
+        <v>4.8772003958167404E-3</v>
       </c>
       <c r="E109">
-        <v>0.001005379139204232</v>
+        <v>1.0053791392042319E-3</v>
       </c>
       <c r="F109">
-        <v>0.009633001331103359</v>
+        <v>9.6330013311033587E-3</v>
       </c>
       <c r="G109">
-        <v>0.005113624817340542</v>
+        <v>5.1136248173405422E-3</v>
       </c>
       <c r="H109">
-        <v>0.0059215818954936</v>
+        <v>5.9215818954935998E-3</v>
       </c>
       <c r="I109">
-        <v>-0.009761048388308062</v>
+        <v>-9.7610483883080624E-3</v>
       </c>
       <c r="J109">
-        <v>0.004437376032809202</v>
+        <v>4.4373760328092022E-3</v>
       </c>
       <c r="L109">
-        <v>-0.001910366015244869</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>-1.9103660152448691E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43039</v>
       </c>
       <c r="B110">
-        <v>0.01914311071699583</v>
+        <v>1.9143110716995829E-2</v>
       </c>
       <c r="D110">
-        <v>0.004402718493833999</v>
+        <v>4.4027184938339988E-3</v>
       </c>
       <c r="E110">
-        <v>0.00138133524975518</v>
+        <v>1.3813352497551801E-3</v>
       </c>
       <c r="F110">
-        <v>0.01214591812761318</v>
+        <v>1.2145918127613181E-2</v>
       </c>
       <c r="G110">
-        <v>0.005324013864115981</v>
+        <v>5.3240138641159809E-3</v>
       </c>
       <c r="H110">
-        <v>-0.004932239235315878</v>
+        <v>-4.9322392353158776E-3</v>
       </c>
       <c r="I110">
-        <v>-0.003400453964194328</v>
+        <v>-3.400453964194328E-3</v>
       </c>
       <c r="J110">
-        <v>-0.001805501605352627</v>
+        <v>-1.8055016053526269E-3</v>
       </c>
       <c r="K110">
-        <v>0.004516290544717529</v>
+        <v>4.516290544717529E-3</v>
       </c>
       <c r="L110">
-        <v>0.02105957718050645</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>2.105957718050645E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43069</v>
       </c>
       <c r="B111">
-        <v>0.01458960618920822</v>
+        <v>1.458960618920822E-2</v>
       </c>
       <c r="D111">
-        <v>0.004450575297617467</v>
+        <v>4.4505752976174671E-3</v>
       </c>
       <c r="E111">
-        <v>0.008373250598811001</v>
+        <v>8.3732505988110013E-3</v>
       </c>
       <c r="F111">
-        <v>-0.001784727401795979</v>
+        <v>-1.7847274017959789E-3</v>
       </c>
       <c r="G111">
-        <v>0.006872031903006325</v>
+        <v>6.8720319030063249E-3</v>
       </c>
       <c r="H111">
-        <v>0.00292435695740427</v>
+        <v>2.9243569574042699E-3</v>
       </c>
       <c r="I111">
-        <v>0.01937446412669799</v>
+        <v>1.937446412669799E-2</v>
       </c>
       <c r="J111">
-        <v>0.001992022564823003</v>
+        <v>1.992022564823003E-3</v>
       </c>
       <c r="K111">
-        <v>0.009202343530254545</v>
+        <v>9.2023435302545451E-3</v>
       </c>
       <c r="L111">
-        <v>0.01056749015584284</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>1.0567490155842839E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43100</v>
       </c>
       <c r="B112">
-        <v>-0.003423666108686849</v>
+        <v>-3.4236661086868491E-3</v>
       </c>
       <c r="D112">
-        <v>0.0002893439945527527</v>
+        <v>2.8934399455275272E-4</v>
       </c>
       <c r="E112">
-        <v>0.003618109522480228</v>
+        <v>3.6181095224802279E-3</v>
       </c>
       <c r="F112">
-        <v>-0.001784727401795979</v>
+        <v>-1.7847274017959789E-3</v>
       </c>
       <c r="G112">
-        <v>0.0006296946100481852</v>
+        <v>6.2969461004818523E-4</v>
       </c>
       <c r="H112">
-        <v>0.006012763917377919</v>
+        <v>6.0127639173779193E-3</v>
       </c>
       <c r="I112">
-        <v>0.006804226772821854</v>
+        <v>6.8042267728218543E-3</v>
       </c>
       <c r="J112">
-        <v>0.003644031656328521</v>
+        <v>3.6440316563285209E-3</v>
       </c>
       <c r="K112">
-        <v>0.007526435039527908</v>
+        <v>7.5264350395279076E-3</v>
       </c>
       <c r="L112">
-        <v>0.01056749015584284</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>1.0567490155842839E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43131</v>
       </c>
       <c r="B113">
-        <v>0.04961992282046326</v>
+        <v>4.9619922820463257E-2</v>
       </c>
       <c r="D113">
-        <v>0.01936382140660845</v>
+        <v>1.9363821406608452E-2</v>
       </c>
       <c r="E113">
-        <v>0.01000808578025764</v>
+        <v>1.000808578025764E-2</v>
       </c>
       <c r="F113">
-        <v>0.007157779345599269</v>
+        <v>7.1577793455992692E-3</v>
       </c>
       <c r="G113">
-        <v>0.01875913424961457</v>
+        <v>1.8759134249614569E-2</v>
       </c>
       <c r="H113">
-        <v>0.002655964817122057</v>
+        <v>2.6559648171220569E-3</v>
       </c>
       <c r="I113">
-        <v>-0.01389305699694555</v>
+        <v>-1.389305699694555E-2</v>
       </c>
       <c r="J113">
-        <v>-0.00446236838606849</v>
+        <v>-4.4623683860684901E-3</v>
       </c>
       <c r="K113">
-        <v>0.01477291629972431</v>
+        <v>1.477291629972431E-2</v>
       </c>
       <c r="L113">
-        <v>0.04383921919513983</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>4.3839219195139827E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43159</v>
       </c>
       <c r="B114">
-        <v>-0.04452731796738101</v>
+        <v>-4.4527317967381012E-2</v>
       </c>
       <c r="D114">
-        <v>-0.02594756445402982</v>
+        <v>-2.594756445402982E-2</v>
       </c>
       <c r="E114">
-        <v>-0.01800093569257154</v>
+        <v>-1.8000935692571541E-2</v>
       </c>
       <c r="F114">
-        <v>-0.006656382466073522</v>
+        <v>-6.6563824660735224E-3</v>
       </c>
       <c r="G114">
-        <v>-0.02546555713161962</v>
+        <v>-2.5465557131619621E-2</v>
       </c>
       <c r="H114">
-        <v>-0.01112634174233715</v>
+        <v>-1.112634174233715E-2</v>
       </c>
       <c r="I114">
-        <v>-0.0651527970006985</v>
+        <v>-6.5152797000698495E-2</v>
       </c>
       <c r="J114">
-        <v>-0.02409438449520077</v>
+        <v>-2.4094384495200769E-2</v>
       </c>
       <c r="K114">
-        <v>-0.02224646834173249</v>
+        <v>-2.2246468341732491E-2</v>
       </c>
       <c r="L114">
-        <v>-0.03014184045368502</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>-3.014184045368502E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43190</v>
       </c>
       <c r="B115">
-        <v>-0.0262355432646478</v>
+        <v>-2.62355432646478E-2</v>
       </c>
       <c r="D115">
-        <v>-0.01173101040586048</v>
+        <v>-1.1731010405860481E-2</v>
       </c>
       <c r="E115">
-        <v>0.003562379308183176</v>
+        <v>3.5623793081831761E-3</v>
       </c>
       <c r="F115">
-        <v>-0.006656382466073522</v>
+        <v>-6.6563824660735224E-3</v>
       </c>
       <c r="G115">
-        <v>-0.008033672469285408</v>
+        <v>-8.0336724692854078E-3</v>
       </c>
       <c r="H115">
-        <v>-0.001076201646752612</v>
+        <v>-1.0762016467526119E-3</v>
       </c>
       <c r="I115">
-        <v>0.01739963476140671</v>
+        <v>1.7399634761406709E-2</v>
       </c>
       <c r="J115">
-        <v>-0.007204615242870753</v>
+        <v>-7.2046152428707532E-3</v>
       </c>
       <c r="K115">
-        <v>-0.008534713949437625</v>
+        <v>-8.5347139494376251E-3</v>
       </c>
       <c r="L115">
-        <v>-0.03014184045368502</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>-3.014184045368502E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43220</v>
       </c>
       <c r="B116">
-        <v>-0.008972963441996705</v>
+        <v>-8.9729634419967053E-3</v>
       </c>
       <c r="D116">
-        <v>0.0009447283018838009</v>
+        <v>9.4472830188380087E-4</v>
       </c>
       <c r="E116">
-        <v>-0.005749017712201374</v>
+        <v>-5.7490177122013738E-3</v>
       </c>
       <c r="F116">
-        <v>0.01195652955678538</v>
+        <v>1.195652955678538E-2</v>
       </c>
       <c r="G116">
-        <v>0.002302141446565504</v>
+        <v>2.3021414465655039E-3</v>
       </c>
       <c r="H116">
-        <v>-0.001076201646752612</v>
+        <v>-1.0762016467526119E-3</v>
       </c>
       <c r="I116">
-        <v>0.008818962906007801</v>
+        <v>8.8189629060078014E-3</v>
       </c>
       <c r="J116">
-        <v>0.007769908640691612</v>
+        <v>7.7699086406916116E-3</v>
       </c>
       <c r="K116">
-        <v>0.00287309218314446</v>
+        <v>2.8730921831444599E-3</v>
       </c>
       <c r="L116">
-        <v>0.001747294787994762</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>1.747294787994762E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43251</v>
       </c>
       <c r="B117">
-        <v>0.02612023863280588</v>
+        <v>2.6120238632805881E-2</v>
       </c>
       <c r="D117">
-        <v>0.007424260181284944</v>
+        <v>7.4242601812849439E-3</v>
       </c>
       <c r="E117">
-        <v>0.001815483149953135</v>
+        <v>1.8154831499531351E-3</v>
       </c>
       <c r="F117">
-        <v>0.006747197315316157</v>
+        <v>6.7471973153161568E-3</v>
       </c>
       <c r="G117">
-        <v>-0.002493970796374762</v>
+        <v>-2.493970796374762E-3</v>
       </c>
       <c r="H117">
-        <v>0.008660285714136006</v>
+        <v>8.6602857141360057E-3</v>
       </c>
       <c r="I117">
-        <v>0.01265479706090135</v>
+        <v>1.2654797060901351E-2</v>
       </c>
       <c r="J117">
-        <v>0.009667417796290751</v>
+        <v>9.6674177962907514E-3</v>
       </c>
       <c r="K117">
-        <v>0.003369912110333595</v>
+        <v>3.3699121103335952E-3</v>
       </c>
       <c r="L117">
-        <v>0.01770559361562154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>1.7705593615621538E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43281</v>
       </c>
       <c r="B118">
-        <v>-0.007921642505780724</v>
+        <v>-7.9216425057807242E-3</v>
       </c>
       <c r="D118">
-        <v>-0.004767456880493191</v>
+        <v>-4.7674568804931912E-3</v>
       </c>
       <c r="E118">
-        <v>-0.004440284088702221</v>
+        <v>-4.440284088702221E-3</v>
       </c>
       <c r="F118">
-        <v>0.006747197315316157</v>
+        <v>6.7471973153161568E-3</v>
       </c>
       <c r="G118">
-        <v>-0.003043458259834394</v>
+        <v>-3.0434582598343942E-3</v>
       </c>
       <c r="H118">
-        <v>0.00763376206117032</v>
+        <v>7.6337620611703202E-3</v>
       </c>
       <c r="I118">
-        <v>0.0139241284195336</v>
+        <v>1.39241284195336E-2</v>
       </c>
       <c r="J118">
-        <v>-0.0001186484090906325</v>
+        <v>-1.186484090906325E-4</v>
       </c>
       <c r="K118">
-        <v>-0.009175819694565327</v>
+        <v>-9.1758196945653271E-3</v>
       </c>
       <c r="L118">
-        <v>0.01770559361562154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>1.7705593615621538E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43312</v>
       </c>
       <c r="B119">
-        <v>0.01386247119180172</v>
+        <v>1.386247119180172E-2</v>
       </c>
       <c r="D119">
-        <v>0.007113737747156149</v>
+        <v>7.1137377471561488E-3</v>
       </c>
       <c r="E119">
-        <v>0.006837529254104384</v>
+        <v>6.8375292541043844E-3</v>
       </c>
       <c r="F119">
-        <v>-0.01074773257970545</v>
+        <v>-1.074773257970545E-2</v>
       </c>
       <c r="G119">
-        <v>0.01273914346765259</v>
+        <v>1.273914346765259E-2</v>
       </c>
       <c r="H119">
-        <v>0.003911650581948515</v>
+        <v>3.9116505819485146E-3</v>
       </c>
       <c r="I119">
-        <v>0.005983346322688946</v>
+        <v>5.9833463226889464E-3</v>
       </c>
       <c r="J119">
-        <v>0.006132210151303014</v>
+        <v>6.1322101513030143E-3</v>
       </c>
       <c r="K119">
-        <v>0.007592594619573075</v>
+        <v>7.5925946195730754E-3</v>
       </c>
       <c r="L119">
-        <v>0.008149748095398602</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>8.1497480953986023E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43343</v>
       </c>
       <c r="B120">
-        <v>0.03372500024670141</v>
+        <v>3.3725000246701407E-2</v>
       </c>
       <c r="D120">
-        <v>0.006568463721911318</v>
+        <v>6.5684637219113181E-3</v>
       </c>
       <c r="E120">
-        <v>-0.002717852918209403</v>
+        <v>-2.7178529182094028E-3</v>
       </c>
       <c r="F120">
-        <v>-0.009429828987627877</v>
+        <v>-9.4298289876278765E-3</v>
       </c>
       <c r="G120">
-        <v>-0.00143292605816337</v>
+        <v>-1.4329260581633699E-3</v>
       </c>
       <c r="H120">
-        <v>0.005033643569558001</v>
+        <v>5.0336435695580014E-3</v>
       </c>
       <c r="I120">
-        <v>0.005983346322688946</v>
+        <v>5.9833463226889464E-3</v>
       </c>
       <c r="J120">
-        <v>0.005767450888757716</v>
+        <v>5.7674508887577162E-3</v>
       </c>
       <c r="K120">
-        <v>0.001665596666919896</v>
+        <v>1.6655966669198959E-3</v>
       </c>
       <c r="L120">
-        <v>0.02115808696836406</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>2.1158086968364059E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43373</v>
       </c>
       <c r="B121">
-        <v>-0.01532165810977484</v>
+        <v>-1.532165810977484E-2</v>
       </c>
       <c r="D121">
-        <v>-0.004135050135439346</v>
+        <v>-4.1350501354393459E-3</v>
       </c>
       <c r="E121">
-        <v>-0.002922052178583723</v>
+        <v>-2.922052178583723E-3</v>
       </c>
       <c r="F121">
-        <v>-0.009429828987627877</v>
+        <v>-9.4298289876278765E-3</v>
       </c>
       <c r="G121">
-        <v>-0.001940958355755745</v>
+        <v>-1.940958355755745E-3</v>
       </c>
       <c r="H121">
-        <v>-0.004457649563171875</v>
+        <v>-4.4576495631718747E-3</v>
       </c>
       <c r="I121">
-        <v>-0.025629653374669</v>
+        <v>-2.5629653374668999E-2</v>
       </c>
       <c r="J121">
-        <v>-0.003337423977301211</v>
+        <v>-3.3374239773012108E-3</v>
       </c>
       <c r="K121">
-        <v>-0.00517574364821236</v>
+        <v>-5.1757436482123597E-3</v>
       </c>
       <c r="L121">
-        <v>0.02115808696836406</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>2.1158086968364059E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43404</v>
       </c>
@@ -2238,629 +2259,629 @@
         <v>-0.1101111535644736</v>
       </c>
       <c r="D122">
-        <v>-0.04660772467958756</v>
+        <v>-4.6607724679587563E-2</v>
       </c>
       <c r="E122">
-        <v>-0.02986937917187742</v>
+        <v>-2.986937917187742E-2</v>
       </c>
       <c r="F122">
-        <v>-0.01570844158922014</v>
+        <v>-1.5708441589220141E-2</v>
       </c>
       <c r="G122">
-        <v>-0.04066660308834649</v>
+        <v>-4.0666603088346492E-2</v>
       </c>
       <c r="H122">
-        <v>-0.01660493947655558</v>
+        <v>-1.6604939476555579E-2</v>
       </c>
       <c r="I122">
-        <v>-0.03004926701647521</v>
+        <v>-3.0049267016475211E-2</v>
       </c>
       <c r="J122">
-        <v>-0.03439663012313829</v>
+        <v>-3.4396630123138289E-2</v>
       </c>
       <c r="K122">
-        <v>-0.04919098747855966</v>
+        <v>-4.9190987478559663E-2</v>
       </c>
       <c r="L122">
-        <v>-0.0876750741276842</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>-8.7675074127684202E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43434</v>
       </c>
       <c r="B123">
-        <v>0.001739882611375802</v>
+        <v>1.7398826113758021E-3</v>
       </c>
       <c r="D123">
-        <v>-0.002279103037810586</v>
+        <v>-2.279103037810586E-3</v>
       </c>
       <c r="E123">
-        <v>0.002005999174578748</v>
+        <v>2.0059991745787478E-3</v>
       </c>
       <c r="F123">
-        <v>-0.005991501625969139</v>
+        <v>-5.9915016259691391E-3</v>
       </c>
       <c r="G123">
-        <v>0.005608885848226795</v>
+        <v>5.6088858482267953E-3</v>
       </c>
       <c r="H123">
-        <v>0.002464632719255566</v>
+        <v>2.4646327192555662E-3</v>
       </c>
       <c r="I123">
-        <v>0.03512060743700277</v>
+        <v>3.5120607437002772E-2</v>
       </c>
       <c r="J123">
-        <v>0.00778195071507479</v>
+        <v>7.7819507150747903E-3</v>
       </c>
       <c r="K123">
-        <v>0.005274638316321213</v>
+        <v>5.274638316321213E-3</v>
       </c>
       <c r="L123">
-        <v>-0.005973310352784268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>-5.9733103527842678E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43465</v>
       </c>
       <c r="B124">
-        <v>-0.09337611744065251</v>
+        <v>-9.3376117440652509E-2</v>
       </c>
       <c r="D124">
-        <v>-0.05486017422572328</v>
+        <v>-5.4860174225723278E-2</v>
       </c>
       <c r="E124">
-        <v>-0.02486813633410477</v>
+        <v>-2.4868136334104771E-2</v>
       </c>
       <c r="F124">
-        <v>-0.01536105840179335</v>
+        <v>-1.5361058401793351E-2</v>
       </c>
       <c r="G124">
-        <v>-0.0403469006263087</v>
+        <v>-4.0346900626308697E-2</v>
       </c>
       <c r="H124">
-        <v>-0.02736882779334937</v>
+        <v>-2.7368827793349371E-2</v>
       </c>
       <c r="I124">
-        <v>-0.06159221155788946</v>
+        <v>-6.1592211557889458E-2</v>
       </c>
       <c r="J124">
-        <v>-0.03356682082350463</v>
+        <v>-3.356682082350463E-2</v>
       </c>
       <c r="K124">
-        <v>0.005274638316321213</v>
+        <v>5.274638316321213E-3</v>
       </c>
       <c r="L124">
-        <v>-0.07592112602733567</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>-7.5921126027335667E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43496</v>
       </c>
       <c r="B125">
-        <v>0.07883022861051658</v>
+        <v>7.8830228610516584E-2</v>
       </c>
       <c r="D125">
-        <v>0.04267570210528451</v>
+        <v>4.2675702105284513E-2</v>
       </c>
       <c r="E125">
-        <v>0.03406381425269999</v>
+        <v>3.4063814252699991E-2</v>
       </c>
       <c r="F125">
-        <v>0.02247069583746275</v>
+        <v>2.2470695837462751E-2</v>
       </c>
       <c r="G125">
-        <v>0.03645304045864189</v>
+        <v>3.6453040458641887E-2</v>
       </c>
       <c r="H125">
-        <v>0.02524048846373599</v>
+        <v>2.5240488463735989E-2</v>
       </c>
       <c r="I125">
-        <v>0.1002933879844144</v>
+        <v>0.10029338798441439</v>
       </c>
       <c r="J125">
-        <v>0.03144904792348399</v>
+        <v>3.1449047923483991E-2</v>
       </c>
       <c r="K125">
-        <v>0.005274638316321213</v>
+        <v>5.274638316321213E-3</v>
       </c>
       <c r="L125">
-        <v>0.06805196584614975</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>6.8051965846149753E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43524</v>
       </c>
       <c r="B126">
-        <v>0.02824001731798186</v>
+        <v>2.8240017317981859E-2</v>
       </c>
       <c r="D126">
-        <v>0.01337612458035602</v>
+        <v>1.337612458035602E-2</v>
       </c>
       <c r="E126">
-        <v>0.007064727482221124</v>
+        <v>7.064727482221124E-3</v>
       </c>
       <c r="F126">
-        <v>0.008742320031536665</v>
+        <v>8.7423200315366652E-3</v>
       </c>
       <c r="G126">
-        <v>0.0109697887074696</v>
+        <v>1.09697887074696E-2</v>
       </c>
       <c r="H126">
-        <v>0.01313197104746314</v>
+        <v>1.313197104746314E-2</v>
       </c>
       <c r="I126">
-        <v>-0.002356520345884807</v>
+        <v>-2.3565203458848069E-3</v>
       </c>
       <c r="J126">
-        <v>0.008459338860685154</v>
+        <v>8.4593388606851536E-3</v>
       </c>
       <c r="K126">
-        <v>0.005274638316321213</v>
+        <v>5.274638316321213E-3</v>
       </c>
       <c r="L126">
-        <v>0.0238651110576946</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>2.38651110576946E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43555</v>
       </c>
       <c r="B127">
-        <v>0.006678472873120118</v>
+        <v>6.6784728731201183E-3</v>
       </c>
       <c r="D127">
-        <v>0.0002894340355235142</v>
+        <v>2.8943403552351418E-4</v>
       </c>
       <c r="E127">
-        <v>-0.002519211219933335</v>
+        <v>-2.5192112199333349E-3</v>
       </c>
       <c r="F127">
-        <v>0.008742320031536665</v>
+        <v>8.7423200315366652E-3</v>
       </c>
       <c r="G127">
-        <v>0.00418054650493607</v>
+        <v>4.1805465049360698E-3</v>
       </c>
       <c r="H127">
-        <v>-0.001885947382079408</v>
+        <v>-1.8859473820794081E-3</v>
       </c>
       <c r="I127">
-        <v>0.02974864513911831</v>
+        <v>2.9748645139118311E-2</v>
       </c>
       <c r="J127">
-        <v>0.00291864044429169</v>
+        <v>2.9186404442916899E-3</v>
       </c>
       <c r="K127">
-        <v>-0.002776487194638235</v>
+        <v>-2.776487194638235E-3</v>
       </c>
       <c r="L127">
-        <v>0.0238651110576946</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+        <v>2.38651110576946E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43585</v>
       </c>
       <c r="B128">
-        <v>0.02740705619808786</v>
+        <v>2.7407056198087861E-2</v>
       </c>
       <c r="D128">
-        <v>0.01200156281178391</v>
+        <v>1.200156281178391E-2</v>
       </c>
       <c r="E128">
-        <v>0.00324799694149732</v>
+        <v>3.2479969414973202E-3</v>
       </c>
       <c r="F128">
-        <v>2.214408508397497E-05</v>
+        <v>2.2144085083974971E-5</v>
       </c>
       <c r="G128">
-        <v>0.009207386773808644</v>
+        <v>9.2073867738086436E-3</v>
       </c>
       <c r="H128">
-        <v>0.00335275375375028</v>
+        <v>3.3527537537502801E-3</v>
       </c>
       <c r="I128">
-        <v>-0.009032518660353374</v>
+        <v>-9.0325186603533742E-3</v>
       </c>
       <c r="J128">
-        <v>0.004325228155242829</v>
+        <v>4.3252281552428294E-3</v>
       </c>
       <c r="K128">
-        <v>0.01037136316670175</v>
+        <v>1.0371363166701749E-2</v>
       </c>
       <c r="L128">
-        <v>0.01208071485442828</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>1.2080714854428279E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43616</v>
       </c>
       <c r="B129">
-        <v>-0.07070133070710925</v>
+        <v>-7.0701330707109253E-2</v>
       </c>
       <c r="C129">
-        <v>-0.04723894660943361</v>
+        <v>-4.7238946609433612E-2</v>
       </c>
       <c r="D129">
-        <v>-0.03923302311658416</v>
+        <v>-3.9233023116584158E-2</v>
       </c>
       <c r="E129">
-        <v>-0.02553094261687337</v>
+        <v>-2.5530942616873369E-2</v>
       </c>
       <c r="F129">
-        <v>-0.01838223164274434</v>
+        <v>-1.8382231642744339E-2</v>
       </c>
       <c r="G129">
-        <v>-0.0325670447197872</v>
+        <v>-3.2567044719787198E-2</v>
       </c>
       <c r="H129">
-        <v>-0.01931112969969582</v>
+        <v>-1.9311129699695818E-2</v>
       </c>
       <c r="I129">
-        <v>-0.005684302436392552</v>
+        <v>-5.6843024363925519E-3</v>
       </c>
       <c r="J129">
-        <v>-0.02300666137605307</v>
+        <v>-2.3006661376053068E-2</v>
       </c>
       <c r="K129">
-        <v>-0.03688345072543803</v>
+        <v>-3.6883450725438027E-2</v>
       </c>
       <c r="L129">
-        <v>-0.04224687876607686</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>-4.2246878766076863E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43646</v>
       </c>
       <c r="B130">
-        <v>0.04862320428578808</v>
+        <v>4.8623204285788077E-2</v>
       </c>
       <c r="C130">
-        <v>0.02361647896195959</v>
+        <v>2.3616478961959592E-2</v>
       </c>
       <c r="D130">
-        <v>0.02342246482995574</v>
+        <v>2.342246482995574E-2</v>
       </c>
       <c r="E130">
-        <v>0.01584750946858681</v>
+        <v>1.5847509468586811E-2</v>
       </c>
       <c r="F130">
-        <v>-0.01838223164274434</v>
+        <v>-1.8382231642744339E-2</v>
       </c>
       <c r="G130">
-        <v>0.03063341732326873</v>
+        <v>3.0633417323268731E-2</v>
       </c>
       <c r="H130">
-        <v>0.01578089561815654</v>
+        <v>1.5780895618156539E-2</v>
       </c>
       <c r="I130">
-        <v>0.01242216857764899</v>
+        <v>1.242216857764899E-2</v>
       </c>
       <c r="J130">
-        <v>0.01911018676617529</v>
+        <v>1.9110186766175291E-2</v>
       </c>
       <c r="K130">
-        <v>0.02985280683087021</v>
+        <v>2.9852806830870209E-2</v>
       </c>
       <c r="L130">
-        <v>-0.04224687876607686</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>-4.2246878766076863E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43677</v>
       </c>
       <c r="B131">
-        <v>0.002031609289944821</v>
+        <v>2.0316092899448209E-3</v>
       </c>
       <c r="C131">
-        <v>-0.004333464310034629</v>
+        <v>-4.3334643100346286E-3</v>
       </c>
       <c r="D131">
-        <v>0.0005080663963478678</v>
+        <v>5.0806639634786777E-4</v>
       </c>
       <c r="E131">
-        <v>-0.0071573567111948</v>
+        <v>-7.1573567111948002E-3</v>
       </c>
       <c r="F131">
-        <v>-0.001917683140906362</v>
+        <v>-1.917683140906362E-3</v>
       </c>
       <c r="G131">
-        <v>-0.001972719432286227</v>
+        <v>-1.9727194322862272E-3</v>
       </c>
       <c r="H131">
-        <v>-0.001431160472967384</v>
+        <v>-1.4311604729673839E-3</v>
       </c>
       <c r="I131">
-        <v>0.007195082126193788</v>
+        <v>7.1950821261937883E-3</v>
       </c>
       <c r="J131">
-        <v>-0.0008398630907203933</v>
+        <v>-8.3986309072039327E-4</v>
       </c>
       <c r="K131">
-        <v>-0.003377627317334547</v>
+        <v>-3.3776273173345469E-3</v>
       </c>
       <c r="L131">
-        <v>0.001642208597117731</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>1.6422085971177309E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43708</v>
       </c>
       <c r="B132">
-        <v>-0.02705349960715134</v>
+        <v>-2.7053499607151341E-2</v>
       </c>
       <c r="C132">
-        <v>-0.02616331735224855</v>
+        <v>-2.6163317352248552E-2</v>
       </c>
       <c r="D132">
-        <v>-0.01444367326733896</v>
+        <v>-1.4443673267338961E-2</v>
       </c>
       <c r="E132">
-        <v>-0.008275800007804516</v>
+        <v>-8.2758000078045155E-3</v>
       </c>
       <c r="F132">
-        <v>-0.001917683140906362</v>
+        <v>-1.917683140906362E-3</v>
       </c>
       <c r="G132">
-        <v>-0.01105083277300791</v>
+        <v>-1.1050832773007909E-2</v>
       </c>
       <c r="H132">
-        <v>-0.01143381010585302</v>
+        <v>-1.143381010585302E-2</v>
       </c>
       <c r="I132">
-        <v>0.01572588482319725</v>
+        <v>1.5725884823197249E-2</v>
       </c>
       <c r="J132">
-        <v>-0.01699809733407192</v>
+        <v>-1.699809733407192E-2</v>
       </c>
       <c r="K132">
-        <v>-0.0241687107882524</v>
+        <v>-2.41687107882524E-2</v>
       </c>
       <c r="L132">
-        <v>0.001642208597117731</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>1.6422085971177309E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43738</v>
       </c>
       <c r="B133">
-        <v>-0.009304663423347076</v>
+        <v>-9.3046634233470756E-3</v>
       </c>
       <c r="C133">
-        <v>0.01963674303103108</v>
+        <v>1.9636743031031079E-2</v>
       </c>
       <c r="D133">
-        <v>0.006479295388097482</v>
+        <v>6.4792953880974816E-3</v>
       </c>
       <c r="E133">
-        <v>0.008747122352540045</v>
+        <v>8.7471223525400453E-3</v>
       </c>
       <c r="F133">
-        <v>0.002743963523373317</v>
+        <v>2.7439635233733172E-3</v>
       </c>
       <c r="G133">
-        <v>0.006657517045345498</v>
+        <v>6.6575170453454981E-3</v>
       </c>
       <c r="H133">
-        <v>0.007332567117776385</v>
+        <v>7.3325671177763849E-3</v>
       </c>
       <c r="I133">
-        <v>0.01800901929994056</v>
+        <v>1.800901929994056E-2</v>
       </c>
       <c r="J133">
-        <v>0.008200530215806865</v>
+        <v>8.2005302158068647E-3</v>
       </c>
       <c r="K133">
-        <v>0.01515312167914362</v>
+        <v>1.515312167914362E-2</v>
       </c>
       <c r="L133">
-        <v>-0.004521666391625404</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>-4.5216663916254037E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43769</v>
       </c>
       <c r="B134">
-        <v>0.01361871609859928</v>
+        <v>1.3618716098599279E-2</v>
       </c>
       <c r="C134">
-        <v>0.005323960602080193</v>
+        <v>5.323960602080193E-3</v>
       </c>
       <c r="D134">
-        <v>0.009283737099351213</v>
+        <v>9.2837370993512133E-3</v>
       </c>
       <c r="E134">
-        <v>-0.001429445807142364</v>
+        <v>-1.4294458071423639E-3</v>
       </c>
       <c r="F134">
-        <v>0.008639380717271211</v>
+        <v>8.6393807172712115E-3</v>
       </c>
       <c r="G134">
-        <v>0.007150010302983012</v>
+        <v>7.150010302983012E-3</v>
       </c>
       <c r="H134">
-        <v>0.006314069533416554</v>
+        <v>6.3140695334165543E-3</v>
       </c>
       <c r="I134">
-        <v>0.01388955208859126</v>
+        <v>1.3889552088591261E-2</v>
       </c>
       <c r="J134">
-        <v>0.01089986935183556</v>
+        <v>1.089986935183556E-2</v>
       </c>
       <c r="K134">
-        <v>0.008026368153190539</v>
+        <v>8.0263681531905391E-3</v>
       </c>
       <c r="L134">
-        <v>0.003361645050841418</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>3.3616450508414178E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43799</v>
       </c>
       <c r="B135">
-        <v>0.02647390736768664</v>
+        <v>2.6473907367686639E-2</v>
       </c>
       <c r="C135">
-        <v>0.008339954250335718</v>
+        <v>8.3399542503357176E-3</v>
       </c>
       <c r="D135">
-        <v>0.008688963004262702</v>
+        <v>8.6889630042627022E-3</v>
       </c>
       <c r="E135">
-        <v>0.00700312687407604</v>
+        <v>7.00312687407604E-3</v>
       </c>
       <c r="F135">
-        <v>0.008639380717271211</v>
+        <v>8.6393807172712115E-3</v>
       </c>
       <c r="G135">
-        <v>0.00677196992274512</v>
+        <v>6.77196992274512E-3</v>
       </c>
       <c r="H135">
-        <v>0.006190467338476375</v>
+        <v>6.1904673384763752E-3</v>
       </c>
       <c r="I135">
-        <v>-0.01157703815322582</v>
+        <v>-1.157703815322582E-2</v>
       </c>
       <c r="J135">
-        <v>0.009650949739343738</v>
+        <v>9.650949739343738E-3</v>
       </c>
       <c r="K135">
-        <v>0.01212969716428294</v>
+        <v>1.212969716428294E-2</v>
       </c>
       <c r="L135">
-        <v>0.003361645050841418</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>3.3616450508414178E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43830</v>
       </c>
       <c r="B136">
-        <v>0.01472101221420298</v>
+        <v>1.472101221420298E-2</v>
       </c>
       <c r="C136">
-        <v>0.01075935641609188</v>
+        <v>1.0759356416091879E-2</v>
       </c>
       <c r="D136">
-        <v>0.01188784690248471</v>
+        <v>1.1887846902484711E-2</v>
       </c>
       <c r="E136">
-        <v>0.007280574595053223</v>
+        <v>7.2805745950532226E-3</v>
       </c>
       <c r="F136">
-        <v>0.02161403716607781</v>
+        <v>2.161403716607781E-2</v>
       </c>
       <c r="G136">
-        <v>0.01122547367671549</v>
+        <v>1.1225473676715491E-2</v>
       </c>
       <c r="H136">
-        <v>0.008501030391331319</v>
+        <v>8.5010303913313195E-3</v>
       </c>
       <c r="I136">
-        <v>0.001933810706199093</v>
+        <v>1.9338107061990929E-3</v>
       </c>
       <c r="J136">
-        <v>0.002645839673468282</v>
+        <v>2.6458396734682821E-3</v>
       </c>
       <c r="K136">
-        <v>0.0136645606824939</v>
+        <v>1.3664560682493899E-2</v>
       </c>
       <c r="L136">
-        <v>0.01142189486241962</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <v>1.142189486241962E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43861</v>
       </c>
       <c r="B137">
-        <v>-0.002879045695211895</v>
+        <v>-2.8790456952118952E-3</v>
       </c>
       <c r="C137">
-        <v>-0.03071505567461519</v>
+        <v>-3.0715055674615192E-2</v>
       </c>
       <c r="D137">
-        <v>-0.01121620816662164</v>
+        <v>-1.121620816662164E-2</v>
       </c>
       <c r="E137">
-        <v>-0.009740372724506736</v>
+        <v>-9.7403727245067365E-3</v>
       </c>
       <c r="F137">
-        <v>-0.02908085608481713</v>
+        <v>-2.9080856084817131E-2</v>
       </c>
       <c r="G137">
-        <v>-0.007020150362037108</v>
+        <v>-7.0201503620371079E-3</v>
       </c>
       <c r="H137">
-        <v>-0.006718783710948896</v>
+        <v>-6.718783710948896E-3</v>
       </c>
       <c r="I137">
-        <v>0.001147864433612403</v>
+        <v>1.1478644336124031E-3</v>
       </c>
       <c r="J137">
-        <v>-0.01207755793029726</v>
+        <v>-1.207755793029726E-2</v>
       </c>
       <c r="K137">
-        <v>-0.02022797438421456</v>
+        <v>-2.0227974384214559E-2</v>
       </c>
       <c r="L137">
-        <v>0.001238141221129822</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>1.238141221129822E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43890</v>
       </c>
       <c r="B138">
-        <v>-0.07361620337763708</v>
+        <v>-7.3616203377637079E-2</v>
       </c>
       <c r="C138">
-        <v>-0.04639987367577007</v>
+        <v>-4.6399873675770073E-2</v>
       </c>
       <c r="D138">
-        <v>-0.0410431298456859</v>
+        <v>-4.1043129845685901E-2</v>
       </c>
       <c r="E138">
-        <v>-0.01513149728816707</v>
+        <v>-1.5131497288167071E-2</v>
       </c>
       <c r="F138">
-        <v>-0.02908085608481713</v>
+        <v>-2.9080856084817131E-2</v>
       </c>
       <c r="G138">
-        <v>-0.04757640323571333</v>
+        <v>-4.7576403235713327E-2</v>
       </c>
       <c r="H138">
-        <v>-0.007627377200624435</v>
+        <v>-7.6273772006244349E-3</v>
       </c>
       <c r="I138">
-        <v>-0.07789937651394864</v>
+        <v>-7.789937651394864E-2</v>
       </c>
       <c r="J138">
-        <v>-0.03608178601861427</v>
+        <v>-3.6081786018614267E-2</v>
       </c>
       <c r="K138">
-        <v>-0.05231577340163187</v>
+        <v>-5.231577340163187E-2</v>
       </c>
       <c r="L138">
-        <v>0.001238141221129822</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>1.238141221129822E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43921</v>
       </c>
       <c r="B139">
-        <v>-0.1328893357091732</v>
+        <v>-0.13288933570917319</v>
       </c>
       <c r="C139">
         <v>-0.1077939631516143</v>
@@ -2869,829 +2890,829 @@
         <v>-0.1022427563752967</v>
       </c>
       <c r="E139">
-        <v>-0.08029448268163776</v>
+        <v>-8.029448268163776E-2</v>
       </c>
       <c r="F139">
-        <v>-0.06998636167384706</v>
+        <v>-6.9986361673847058E-2</v>
       </c>
       <c r="G139">
-        <v>-0.07412936912189207</v>
+        <v>-7.4129369121892066E-2</v>
       </c>
       <c r="H139">
-        <v>-0.0657587547609238</v>
+        <v>-6.5758754760923799E-2</v>
       </c>
       <c r="I139">
-        <v>-0.2259939353738946</v>
+        <v>-0.22599393537389459</v>
       </c>
       <c r="J139">
-        <v>-0.02908733729271907</v>
+        <v>-2.9087337292719069E-2</v>
       </c>
       <c r="K139">
         <v>-0.1179728223758465</v>
       </c>
       <c r="L139">
-        <v>-0.1273235059866172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>-0.12732350598661721</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43951</v>
       </c>
       <c r="B140">
-        <v>0.1193411863191493</v>
+        <v>0.11934118631914931</v>
       </c>
       <c r="C140">
-        <v>0.0585181718206861</v>
+        <v>5.8518171820686103E-2</v>
       </c>
       <c r="D140">
-        <v>0.06412405110151366</v>
+        <v>6.412405110151366E-2</v>
       </c>
       <c r="E140">
-        <v>0.04835162880715625</v>
+        <v>4.8351628807156252E-2</v>
       </c>
       <c r="F140">
-        <v>-0.002212845539898158</v>
+        <v>-2.212845539898158E-3</v>
       </c>
       <c r="G140">
-        <v>0.04808827780019726</v>
+        <v>4.8088277800197261E-2</v>
       </c>
       <c r="H140">
-        <v>0.04451835904505372</v>
+        <v>4.4518359045053718E-2</v>
       </c>
       <c r="I140">
-        <v>0.07368957658827041</v>
+        <v>7.3689576588270411E-2</v>
       </c>
       <c r="J140">
-        <v>0.03524461124782394</v>
+        <v>3.5244611247823937E-2</v>
       </c>
       <c r="K140">
-        <v>0.07096640463020598</v>
+        <v>7.0966404630205981E-2</v>
       </c>
       <c r="L140">
-        <v>0.09788040748670232</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>9.788040748670232E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43982</v>
       </c>
       <c r="B141">
-        <v>0.0500432242855308</v>
+        <v>5.0043224285530798E-2</v>
       </c>
       <c r="C141">
-        <v>0.01000191432575967</v>
+        <v>1.000191432575967E-2</v>
       </c>
       <c r="D141">
-        <v>0.01859430160945935</v>
+        <v>1.8594301609459352E-2</v>
       </c>
       <c r="E141">
-        <v>0.00551873109328045</v>
+        <v>5.51873109328045E-3</v>
       </c>
       <c r="F141">
-        <v>-0.002212845539898158</v>
+        <v>-2.212845539898158E-3</v>
       </c>
       <c r="G141">
-        <v>0.02253545661938807</v>
+        <v>2.2535456619388071E-2</v>
       </c>
       <c r="H141">
-        <v>0.01156454938066185</v>
+        <v>1.156454938066185E-2</v>
       </c>
       <c r="I141">
-        <v>0.007125427607193</v>
+        <v>7.125427607193E-3</v>
       </c>
       <c r="J141">
-        <v>0.01317985004857872</v>
+        <v>1.3179850048578721E-2</v>
       </c>
       <c r="K141">
-        <v>0.02126690995925827</v>
+        <v>2.1266909959258271E-2</v>
       </c>
       <c r="L141">
-        <v>0.09788040748670232</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>9.788040748670232E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44012</v>
       </c>
       <c r="B142">
-        <v>0.02548391421439266</v>
+        <v>2.548391421439266E-2</v>
       </c>
       <c r="C142">
-        <v>0.004563248480585538</v>
+        <v>4.5632484805855382E-3</v>
       </c>
       <c r="D142">
-        <v>0.0120301457135862</v>
+        <v>1.20301457135862E-2</v>
       </c>
       <c r="E142">
-        <v>0.008353202341755636</v>
+        <v>8.3532023417556365E-3</v>
       </c>
       <c r="F142">
-        <v>0.02428202354653985</v>
+        <v>2.4282023546539851E-2</v>
       </c>
       <c r="G142">
-        <v>0.007532583013965276</v>
+        <v>7.5325830139652758E-3</v>
       </c>
       <c r="H142">
-        <v>0.01335233307048227</v>
+        <v>1.335233307048227E-2</v>
       </c>
       <c r="I142">
-        <v>0.02245141030496385</v>
+        <v>2.2451410304963851E-2</v>
       </c>
       <c r="J142">
-        <v>-0.01903771232273358</v>
+        <v>-1.9037712322733581E-2</v>
       </c>
       <c r="K142">
-        <v>0.01527351937857185</v>
+        <v>1.527351937857185E-2</v>
       </c>
       <c r="L142">
-        <v>0.02238708598658988</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>2.238708598658988E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44043</v>
       </c>
       <c r="B143">
-        <v>0.05131677518868451</v>
+        <v>5.1316775188684507E-2</v>
       </c>
       <c r="C143">
-        <v>0.00405857076805667</v>
+        <v>4.0585707680566704E-3</v>
       </c>
       <c r="D143">
-        <v>0.01921446063061981</v>
+        <v>1.9214460630619809E-2</v>
       </c>
       <c r="E143">
-        <v>0.02566215152650938</v>
+        <v>2.5662151526509379E-2</v>
       </c>
       <c r="F143">
-        <v>0.02894996793126395</v>
+        <v>2.8949967931263951E-2</v>
       </c>
       <c r="G143">
-        <v>0.01691783075397906</v>
+        <v>1.6917830753979061E-2</v>
       </c>
       <c r="H143">
-        <v>-6.390114031462316E-06</v>
+        <v>-6.3901140314623163E-6</v>
       </c>
       <c r="I143">
-        <v>0.0205593954441505</v>
+        <v>2.0559395444150499E-2</v>
       </c>
       <c r="J143">
-        <v>0.01740234214666657</v>
+        <v>1.7402342146666569E-2</v>
       </c>
       <c r="K143">
-        <v>0.01595584843512138</v>
+        <v>1.5955848435121382E-2</v>
       </c>
       <c r="L143">
-        <v>0.04114484256061956</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>4.1144842560619559E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44074</v>
       </c>
       <c r="B144">
-        <v>0.05655925237638795</v>
+        <v>5.6559252376387953E-2</v>
       </c>
       <c r="C144">
-        <v>0.02231076142727727</v>
+        <v>2.2310761427277271E-2</v>
       </c>
       <c r="D144">
-        <v>0.030417932830943</v>
+        <v>3.0417932830943E-2</v>
       </c>
       <c r="E144">
-        <v>0.01373665108858472</v>
+        <v>1.373665108858472E-2</v>
       </c>
       <c r="F144">
-        <v>0.02767045124501807</v>
+        <v>2.767045124501807E-2</v>
       </c>
       <c r="G144">
-        <v>0.01955167620247713</v>
+        <v>1.9551676202477129E-2</v>
       </c>
       <c r="H144">
-        <v>0.0145813369671178</v>
+        <v>1.4581336967117799E-2</v>
       </c>
       <c r="I144">
-        <v>0.01121951948047208</v>
+        <v>1.121951948047208E-2</v>
       </c>
       <c r="J144">
-        <v>0.0111948068312015</v>
+        <v>1.11948068312015E-2</v>
       </c>
       <c r="K144">
-        <v>0.02009164383925923</v>
+        <v>2.0091643839259231E-2</v>
       </c>
       <c r="L144">
-        <v>0.04515548247357381</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>4.5155482473573809E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44104</v>
       </c>
       <c r="B145">
-        <v>-0.0411735037253468</v>
+        <v>-4.1173503725346797E-2</v>
       </c>
       <c r="C145">
-        <v>-0.02267672701566718</v>
+        <v>-2.267672701566718E-2</v>
       </c>
       <c r="D145">
-        <v>-0.02182829345200881</v>
+        <v>-2.1828293452008811E-2</v>
       </c>
       <c r="E145">
-        <v>-0.01625138106308251</v>
+        <v>-1.625138106308251E-2</v>
       </c>
       <c r="F145">
-        <v>-0.01321754880598972</v>
+        <v>-1.321754880598972E-2</v>
       </c>
       <c r="G145">
-        <v>-0.01609122855247889</v>
+        <v>-1.6091228552478892E-2</v>
       </c>
       <c r="H145">
-        <v>-0.004733812882067678</v>
+        <v>-4.733812882067678E-3</v>
       </c>
       <c r="I145">
-        <v>-0.03160154292063784</v>
+        <v>-3.160154292063784E-2</v>
       </c>
       <c r="J145">
-        <v>-0.007997504194881849</v>
+        <v>-7.9975041948818493E-3</v>
       </c>
       <c r="K145">
-        <v>-0.01449606171873654</v>
+        <v>-1.449606171873654E-2</v>
       </c>
       <c r="L145">
-        <v>-0.02127136931541718</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>-2.127136931541718E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44135</v>
       </c>
       <c r="B146">
-        <v>-0.0281130535135114</v>
+        <v>-2.8113053513511399E-2</v>
       </c>
       <c r="C146">
-        <v>-0.009944581952030698</v>
+        <v>-9.9445819520306983E-3</v>
       </c>
       <c r="D146">
-        <v>-0.01363529794273607</v>
+        <v>-1.3635297942736071E-2</v>
       </c>
       <c r="E146">
-        <v>-0.004225315105655873</v>
+        <v>-4.2253151056558733E-3</v>
       </c>
       <c r="F146">
-        <v>-0.01321754880598972</v>
+        <v>-1.321754880598972E-2</v>
       </c>
       <c r="G146">
-        <v>-0.02061335852222556</v>
+        <v>-2.061335852222556E-2</v>
       </c>
       <c r="H146">
-        <v>0.004836941745518634</v>
+        <v>4.8369417455186338E-3</v>
       </c>
       <c r="I146">
-        <v>-0.03721646162626284</v>
+        <v>-3.7216461626262839E-2</v>
       </c>
       <c r="J146">
-        <v>-0.01225614448340728</v>
+        <v>-1.225614448340728E-2</v>
       </c>
       <c r="K146">
-        <v>-0.006514172122146777</v>
+        <v>-6.5141721221467774E-3</v>
       </c>
       <c r="L146">
-        <v>-0.02127136931541718</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>-2.127136931541718E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44165</v>
       </c>
       <c r="B147">
-        <v>0.1074731272318731</v>
+        <v>0.10747312723187311</v>
       </c>
       <c r="C147">
-        <v>0.08048470348698387</v>
+        <v>8.0484703486983875E-2</v>
       </c>
       <c r="D147">
-        <v>0.08328971442459823</v>
+        <v>8.3289714424598232E-2</v>
       </c>
       <c r="E147">
-        <v>0.04497286487457045</v>
+        <v>4.4972864874570452E-2</v>
       </c>
       <c r="F147">
-        <v>0.03510358694711626</v>
+        <v>3.510358694711626E-2</v>
       </c>
       <c r="G147">
-        <v>0.06254472590001517</v>
+        <v>6.2544725900015169E-2</v>
       </c>
       <c r="H147">
-        <v>0.05241391199805007</v>
+        <v>5.2413911998050067E-2</v>
       </c>
       <c r="I147">
         <v>0.1119989637048785</v>
       </c>
       <c r="J147">
-        <v>0.05470759899448349</v>
+        <v>5.4707598994483492E-2</v>
       </c>
       <c r="K147">
-        <v>0.07193661325102167</v>
+        <v>7.1936613251021672E-2</v>
       </c>
       <c r="L147">
-        <v>0.09676706828011403</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>9.6767068280114027E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44196</v>
       </c>
       <c r="B148">
-        <v>0.04248359748241061</v>
+        <v>4.2483597482410609E-2</v>
       </c>
       <c r="C148">
-        <v>0.01858416321596943</v>
+        <v>1.8584163215969431E-2</v>
       </c>
       <c r="D148">
-        <v>0.02292867564941428</v>
+        <v>2.2928675649414278E-2</v>
       </c>
       <c r="E148">
-        <v>0.00956960807478373</v>
+        <v>9.5696080747837298E-3</v>
       </c>
       <c r="F148">
-        <v>0.02704617104398783</v>
+        <v>2.7046171043987832E-2</v>
       </c>
       <c r="G148">
-        <v>0.01567334053058692</v>
+        <v>1.5673340530586919E-2</v>
       </c>
       <c r="H148">
-        <v>0.00662063971895834</v>
+        <v>6.6206397189583401E-3</v>
       </c>
       <c r="I148">
-        <v>0.02831197128318</v>
+        <v>2.8311971283179999E-2</v>
       </c>
       <c r="J148">
-        <v>0.006201209093187058</v>
+        <v>6.201209093187058E-3</v>
       </c>
       <c r="K148">
-        <v>0.02915817116921155</v>
+        <v>2.9158171169211551E-2</v>
       </c>
       <c r="L148">
-        <v>0.03312847040474932</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>3.3128470404749318E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44227</v>
       </c>
       <c r="B149">
-        <v>-0.008484013284341996</v>
+        <v>-8.4840132843419964E-3</v>
       </c>
       <c r="C149">
-        <v>0.005206433275331772</v>
+        <v>5.206433275331772E-3</v>
       </c>
       <c r="D149">
-        <v>-0.005733308166112215</v>
+        <v>-5.7333081661122146E-3</v>
       </c>
       <c r="E149">
-        <v>0.001998765880776289</v>
+        <v>1.9987658807762891E-3</v>
       </c>
       <c r="F149">
-        <v>0.02704617104398783</v>
+        <v>2.7046171043987832E-2</v>
       </c>
       <c r="G149">
-        <v>-0.009353539284955437</v>
+        <v>-9.353539284955437E-3</v>
       </c>
       <c r="H149">
-        <v>0.01611645522988601</v>
+        <v>1.6116455229886011E-2</v>
       </c>
       <c r="I149">
-        <v>-0.004874137784162844</v>
+        <v>-4.8741377841628438E-3</v>
       </c>
       <c r="J149">
-        <v>-0.02123152427041823</v>
+        <v>-2.1231524270418231E-2</v>
       </c>
       <c r="K149">
-        <v>0.003828571475772957</v>
+        <v>3.8285714757729569E-3</v>
       </c>
       <c r="L149">
-        <v>0.03312847040474932</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>3.3128470404749318E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44255</v>
       </c>
       <c r="B150">
-        <v>0.003877864247610306</v>
+        <v>3.8778642476103059E-3</v>
       </c>
       <c r="C150">
-        <v>0.02221491096882931</v>
+        <v>2.2214910968829309E-2</v>
       </c>
       <c r="D150">
-        <v>0.01216135568643786</v>
+        <v>1.216135568643786E-2</v>
       </c>
       <c r="E150">
-        <v>0.00423739290871792</v>
+        <v>4.2373929087179199E-3</v>
       </c>
       <c r="F150">
-        <v>0.02704617104398783</v>
+        <v>2.7046171043987832E-2</v>
       </c>
       <c r="G150">
-        <v>0.003819661283078436</v>
+        <v>3.8196612830784359E-3</v>
       </c>
       <c r="H150">
-        <v>0.001182353519563869</v>
+        <v>1.1823535195638691E-3</v>
       </c>
       <c r="I150">
-        <v>0.02851151484965277</v>
+        <v>2.851151484965277E-2</v>
       </c>
       <c r="J150">
-        <v>0.02468003380658569</v>
+        <v>2.4680033806585691E-2</v>
       </c>
       <c r="K150">
-        <v>0.01709132699167349</v>
+        <v>1.709132699167349E-2</v>
       </c>
       <c r="L150">
-        <v>0.03312847040474932</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>3.3128470404749318E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44286</v>
       </c>
       <c r="B151">
-        <v>-0.001790550850053922</v>
+        <v>-1.7905508500539219E-3</v>
       </c>
       <c r="C151">
-        <v>0.03047222366126793</v>
+        <v>3.0472223661267929E-2</v>
       </c>
       <c r="D151">
-        <v>0.007187043846886537</v>
+        <v>7.1870438468865372E-3</v>
       </c>
       <c r="E151">
-        <v>0.01327814802780123</v>
+        <v>1.327814802780123E-2</v>
       </c>
       <c r="F151">
-        <v>-0.009607135248274057</v>
+        <v>-9.6071352482740568E-3</v>
       </c>
       <c r="G151">
-        <v>0.01302745497746059</v>
+        <v>1.3027454977460591E-2</v>
       </c>
       <c r="H151">
-        <v>0.001674281436468333</v>
+        <v>1.674281436468333E-3</v>
       </c>
       <c r="I151">
-        <v>0.03584733522553745</v>
+        <v>3.5847335225537451E-2</v>
       </c>
       <c r="J151">
-        <v>0.02238155802134959</v>
+        <v>2.2381558021349592E-2</v>
       </c>
       <c r="K151">
-        <v>0.01559311314878292</v>
+        <v>1.559311314878292E-2</v>
       </c>
       <c r="L151">
-        <v>0.003841711206343809</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>3.8417112063438091E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44316</v>
       </c>
       <c r="B152">
-        <v>0.04131556348540493</v>
+        <v>4.1315563485404931E-2</v>
       </c>
       <c r="C152">
-        <v>0.01065394796667518</v>
+        <v>1.065394796667518E-2</v>
       </c>
       <c r="D152">
-        <v>0.009559296404409107</v>
+        <v>9.559296404409107E-3</v>
       </c>
       <c r="E152">
-        <v>0.008245161670803873</v>
+        <v>8.2451616708038734E-3</v>
       </c>
       <c r="F152">
-        <v>0.04402184271698355</v>
+        <v>4.4021842716983547E-2</v>
       </c>
       <c r="G152">
-        <v>0.01653755881592076</v>
+        <v>1.6537558815920759E-2</v>
       </c>
       <c r="H152">
-        <v>0.001766941039034137</v>
+        <v>1.766941039034137E-3</v>
       </c>
       <c r="I152">
-        <v>0.0582186974504133</v>
+        <v>5.8218697450413297E-2</v>
       </c>
       <c r="J152">
-        <v>0.01236064717195432</v>
+        <v>1.2360647171954319E-2</v>
       </c>
       <c r="K152">
-        <v>0.01590765324570382</v>
+        <v>1.5907653245703819E-2</v>
       </c>
       <c r="L152">
-        <v>0.02972271797161537</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>2.9722717971615371E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44347</v>
       </c>
       <c r="B153">
-        <v>-0.01225009333407695</v>
+        <v>-1.225009333407695E-2</v>
       </c>
       <c r="C153">
-        <v>0.01492333519305721</v>
+        <v>1.492333519305721E-2</v>
       </c>
       <c r="D153">
-        <v>-0.0001023513113626207</v>
+        <v>-1.023513113626207E-4</v>
       </c>
       <c r="E153">
-        <v>0.01115495191811332</v>
+        <v>1.115495191811332E-2</v>
       </c>
       <c r="F153">
-        <v>0.01329182039344957</v>
+        <v>1.3291820393449571E-2</v>
       </c>
       <c r="G153">
-        <v>0.004994076363683168</v>
+        <v>4.9940763636831679E-3</v>
       </c>
       <c r="H153">
-        <v>-0.001071949524874088</v>
+        <v>-1.071949524874088E-3</v>
       </c>
       <c r="I153">
-        <v>0.007623132698218945</v>
+        <v>7.6231326982189448E-3</v>
       </c>
       <c r="J153">
-        <v>0.004458338107591347</v>
+        <v>4.4583381075913473E-3</v>
       </c>
       <c r="K153">
-        <v>0.00616210822250162</v>
+        <v>6.1621082225016199E-3</v>
       </c>
       <c r="L153">
-        <v>-0.003493219860899353</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>-3.4932198608993532E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44377</v>
       </c>
       <c r="B154">
-        <v>0.02951983572863813</v>
+        <v>2.951983572863813E-2</v>
       </c>
       <c r="C154">
-        <v>-0.01357828880593879</v>
+        <v>-1.3578288805938791E-2</v>
       </c>
       <c r="D154">
-        <v>0.004303344938265868</v>
+        <v>4.3033449382658684E-3</v>
       </c>
       <c r="E154">
-        <v>-0.002506908707043063</v>
+        <v>-2.506908707043063E-3</v>
       </c>
       <c r="F154">
-        <v>-0.001452499644318207</v>
+        <v>-1.452499644318207E-3</v>
       </c>
       <c r="G154">
-        <v>0.0002524683500431727</v>
+        <v>2.5246835004317272E-4</v>
       </c>
       <c r="H154">
-        <v>0.008891602332466301</v>
+        <v>8.8916023324663012E-3</v>
       </c>
       <c r="I154">
-        <v>0.01489937973422236</v>
+        <v>1.4899379734222361E-2</v>
       </c>
       <c r="J154">
-        <v>0.01310560980189021</v>
+        <v>1.3105609801890209E-2</v>
       </c>
       <c r="K154">
-        <v>-0.0007949574777224577</v>
+        <v>-7.9495747772245773E-4</v>
       </c>
       <c r="L154">
-        <v>0.01747129717680061</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>1.7471297176800609E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44408</v>
       </c>
       <c r="B155">
-        <v>0.001750674218352515</v>
+        <v>1.7506742183525149E-3</v>
       </c>
       <c r="C155">
-        <v>-0.00614029964420861</v>
+        <v>-6.1402996442086102E-3</v>
       </c>
       <c r="D155">
-        <v>-0.002780953344872189</v>
+        <v>-2.780953344872189E-3</v>
       </c>
       <c r="E155">
-        <v>0.0007745425543491692</v>
+        <v>7.7454255434916924E-4</v>
       </c>
       <c r="F155">
-        <v>-0.001452499644318207</v>
+        <v>-1.452499644318207E-3</v>
       </c>
       <c r="G155">
-        <v>0.003085088527545058</v>
+        <v>3.0850885275450581E-3</v>
       </c>
       <c r="H155">
-        <v>-0.007949389390408063</v>
+        <v>-7.9493893904080629E-3</v>
       </c>
       <c r="I155">
-        <v>0.02281160838242879</v>
+        <v>2.2811608382428791E-2</v>
       </c>
       <c r="J155">
-        <v>-0.009202467587132595</v>
+        <v>-9.2024675871325949E-3</v>
       </c>
       <c r="K155">
-        <v>-0.004556760306734721</v>
+        <v>-4.5567603067347209E-3</v>
       </c>
       <c r="L155">
-        <v>0.01747129717680061</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>1.7471297176800609E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44439</v>
       </c>
       <c r="B156">
-        <v>0.02028184870551221</v>
+        <v>2.0281848705512209E-2</v>
       </c>
       <c r="C156">
-        <v>0.006254458896561771</v>
+        <v>6.2544588965617711E-3</v>
       </c>
       <c r="D156">
-        <v>-0.002780953344872189</v>
+        <v>-2.780953344872189E-3</v>
       </c>
       <c r="E156">
-        <v>0.0005170502221700993</v>
+        <v>5.1705022217009928E-4</v>
       </c>
       <c r="F156">
-        <v>-0.004046997109000052</v>
+        <v>-4.0469971090000521E-3</v>
       </c>
       <c r="G156">
-        <v>0.007468216201905725</v>
+        <v>7.4682162019057254E-3</v>
       </c>
       <c r="H156">
-        <v>0.009146905730271316</v>
+        <v>9.146905730271316E-3</v>
       </c>
       <c r="I156">
-        <v>0.01501859946043403</v>
+        <v>1.501859946043403E-2</v>
       </c>
       <c r="J156">
-        <v>0.01077106240972902</v>
+        <v>1.0771062409729019E-2</v>
       </c>
       <c r="K156">
-        <v>0.00925413492541094</v>
+        <v>9.2541349254109395E-3</v>
       </c>
       <c r="L156">
-        <v>0.02087851813435797</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+        <v>2.0878518134357971E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44469</v>
       </c>
       <c r="B157">
-        <v>-0.06257097252577964</v>
+        <v>-6.2570972525779645E-2</v>
       </c>
       <c r="C157">
-        <v>-0.01870244328579242</v>
+        <v>-1.870244328579242E-2</v>
       </c>
       <c r="D157">
-        <v>-0.01994719158192688</v>
+        <v>-1.9947191581926881E-2</v>
       </c>
       <c r="E157">
-        <v>-0.00852288404703958</v>
+        <v>-8.5228840470395802E-3</v>
       </c>
       <c r="F157">
-        <v>0.004959772730560251</v>
+        <v>4.9597727305602506E-3</v>
       </c>
       <c r="G157">
-        <v>-0.02551119041428994</v>
+        <v>-2.5511190414289939E-2</v>
       </c>
       <c r="H157">
-        <v>-0.008449026464025516</v>
+        <v>-8.449026464025516E-3</v>
       </c>
       <c r="I157">
-        <v>-0.0547657896793033</v>
+        <v>-5.4765789679303303E-2</v>
       </c>
       <c r="J157">
-        <v>-0.02102349296995495</v>
+        <v>-2.1023492969954951E-2</v>
       </c>
       <c r="K157">
-        <v>-0.01954848966646017</v>
+        <v>-1.9548489666460171E-2</v>
       </c>
       <c r="L157">
-        <v>-0.03752168646402081</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>-3.7521686464020813E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44500</v>
       </c>
       <c r="B158">
-        <v>0.0465941468512372</v>
+        <v>4.6594146851237202E-2</v>
       </c>
       <c r="C158">
-        <v>0.009284676769155882</v>
+        <v>9.2846767691558817E-3</v>
       </c>
       <c r="D158">
-        <v>0.01968397133988018</v>
+        <v>1.9683971339880181E-2</v>
       </c>
       <c r="E158">
-        <v>0.004345280747501872</v>
+        <v>4.345280747501872E-3</v>
       </c>
       <c r="F158">
-        <v>0.004959772730560251</v>
+        <v>4.9597727305602506E-3</v>
       </c>
       <c r="G158">
-        <v>0.01910671615045677</v>
+        <v>1.9106716150456771E-2</v>
       </c>
       <c r="H158">
-        <v>0.001598998200484454</v>
+        <v>1.598998200484454E-3</v>
       </c>
       <c r="I158">
-        <v>0.04515886419378611</v>
+        <v>4.5158864193786112E-2</v>
       </c>
       <c r="J158">
-        <v>0.02325149273560632</v>
+        <v>2.3251492735606321E-2</v>
       </c>
       <c r="K158">
-        <v>0.01049488512041479</v>
+        <v>1.049488512041479E-2</v>
       </c>
       <c r="L158">
-        <v>-0.03752168646402081</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+        <v>-3.7521686464020813E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44530</v>
       </c>
       <c r="B159">
-        <v>-0.0264354330566273</v>
+        <v>-2.6435433056627301E-2</v>
       </c>
       <c r="C159">
-        <v>-0.01890353446689874</v>
+        <v>-1.8903534466898742E-2</v>
       </c>
       <c r="D159">
-        <v>-0.02524625087572056</v>
+        <v>-2.524625087572056E-2</v>
       </c>
       <c r="E159">
-        <v>-0.01009167174171343</v>
+        <v>-1.009167174171343E-2</v>
       </c>
       <c r="F159">
-        <v>-0.02061148868431694</v>
+        <v>-2.0611488684316941E-2</v>
       </c>
       <c r="G159">
-        <v>-0.02092111110420969</v>
+        <v>-2.0921111104209689E-2</v>
       </c>
       <c r="H159">
-        <v>-0.008399425770328177</v>
+        <v>-8.3994257703281765E-3</v>
       </c>
       <c r="I159">
-        <v>-0.01902382665652174</v>
+        <v>-1.902382665652174E-2</v>
       </c>
       <c r="J159">
-        <v>-0.03708597621493362</v>
+        <v>-3.7085976214933619E-2</v>
       </c>
       <c r="K159">
-        <v>-0.02294086173330419</v>
+        <v>-2.2940861733304192E-2</v>
       </c>
       <c r="L159">
-        <v>-0.02901720273086519</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>-2.901720273086519E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44561</v>
       </c>
       <c r="B160">
-        <v>0.01639768786227607</v>
+        <v>1.6397687862276071E-2</v>
       </c>
       <c r="C160">
-        <v>0.02639472314026017</v>
+        <v>2.639472314026017E-2</v>
       </c>
       <c r="D160">
-        <v>0.01076581875166686</v>
+        <v>1.0765818751666861E-2</v>
       </c>
       <c r="E160">
-        <v>0.01546722644765592</v>
+        <v>1.546722644765592E-2</v>
       </c>
       <c r="F160">
-        <v>0.02307472097790116</v>
+        <v>2.3074720977901159E-2</v>
       </c>
       <c r="G160">
-        <v>0.02132640678005782</v>
+        <v>2.132640678005782E-2</v>
       </c>
       <c r="H160">
-        <v>-0.006258973466949301</v>
+        <v>-6.2589734669493014E-3</v>
       </c>
       <c r="I160">
-        <v>0.06611360084821526</v>
+        <v>6.6113600848215257E-2</v>
       </c>
       <c r="J160">
-        <v>0.01861586583121465</v>
+        <v>1.8615865831214651E-2</v>
       </c>
       <c r="K160">
-        <v>0.01851572509072767</v>
+        <v>1.8515725090727669E-2</v>
       </c>
       <c r="L160">
-        <v>0.01062531873494767</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+        <v>1.062531873494767E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44592</v>
       </c>
@@ -3699,113 +3720,113 @@
         <v>-0.1097628564475859</v>
       </c>
       <c r="C161">
-        <v>-0.005193878941923965</v>
+        <v>-5.1938789419239649E-3</v>
       </c>
       <c r="D161">
-        <v>-0.03576309860436636</v>
+        <v>-3.5763098604366363E-2</v>
       </c>
       <c r="E161">
-        <v>-0.001233014041186264</v>
+        <v>-1.233014041186264E-3</v>
       </c>
       <c r="F161">
-        <v>0.02493097546328214</v>
+        <v>2.4930975463282139E-2</v>
       </c>
       <c r="G161">
-        <v>-0.03080323797869082</v>
+        <v>-3.080323797869082E-2</v>
       </c>
       <c r="H161">
-        <v>-0.02669461133343486</v>
+        <v>-2.669461133343486E-2</v>
       </c>
       <c r="I161">
-        <v>-0.06191955099543671</v>
+        <v>-6.1919550995436709E-2</v>
       </c>
       <c r="J161">
-        <v>-0.03661069781224788</v>
+        <v>-3.6610697812247878E-2</v>
       </c>
       <c r="K161">
-        <v>-0.03672401657477083</v>
+        <v>-3.6724016574770833E-2</v>
       </c>
       <c r="L161">
-        <v>-0.07285304754411531</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+        <v>-7.2853047544115312E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44620</v>
       </c>
       <c r="B162">
-        <v>-0.03365240675402002</v>
+        <v>-3.3652406754020023E-2</v>
       </c>
       <c r="C162">
-        <v>-0.008885469450808607</v>
+        <v>-8.8854694508086075E-3</v>
       </c>
       <c r="D162">
-        <v>-0.009841765499718137</v>
+        <v>-9.8417654997181372E-3</v>
       </c>
       <c r="E162">
-        <v>0.006185474963292748</v>
+        <v>6.1854749632927484E-3</v>
       </c>
       <c r="F162">
-        <v>0.03169423162021882</v>
+        <v>3.1694231620218817E-2</v>
       </c>
       <c r="G162">
-        <v>-0.01343201203979603</v>
+        <v>-1.3432012039796029E-2</v>
       </c>
       <c r="H162">
-        <v>-0.004040728374494536</v>
+        <v>-4.0407283744945356E-3</v>
       </c>
       <c r="I162">
-        <v>-0.03418283606148997</v>
+        <v>-3.4182836061489967E-2</v>
       </c>
       <c r="J162">
-        <v>-0.01444000801165365</v>
+        <v>-1.4440008011653649E-2</v>
       </c>
       <c r="K162">
-        <v>-0.002560495972168228</v>
+        <v>-2.5604959721682282E-3</v>
       </c>
       <c r="L162">
-        <v>-0.0179677067442807</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+        <v>-1.79677067442807E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44651</v>
       </c>
       <c r="B163">
-        <v>0.01381210792549562</v>
+        <v>1.381210792549562E-2</v>
       </c>
       <c r="C163">
-        <v>0.005222707968867642</v>
+        <v>5.2227079688676424E-3</v>
       </c>
       <c r="D163">
-        <v>0.004860536404224545</v>
+        <v>4.8605364042245448E-3</v>
       </c>
       <c r="E163">
-        <v>0.003485963972368604</v>
+        <v>3.4859639723686039E-3</v>
       </c>
       <c r="F163">
-        <v>0.03153653048833031</v>
+        <v>3.1536530488330307E-2</v>
       </c>
       <c r="G163">
-        <v>0.004853857845047379</v>
+        <v>4.8538578450473789E-3</v>
       </c>
       <c r="H163">
-        <v>0.000598088274660812</v>
+        <v>5.9808827466081198E-4</v>
       </c>
       <c r="I163">
-        <v>0.0521456273164324</v>
+        <v>5.2145627316432401E-2</v>
       </c>
       <c r="J163">
-        <v>0.007097172152759829</v>
+        <v>7.0971721527598288E-3</v>
       </c>
       <c r="K163">
-        <v>0.002394729575366026</v>
+        <v>2.394729575366026E-3</v>
       </c>
       <c r="L163">
-        <v>0.02089550164217887</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+        <v>2.0895501642178869E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44681</v>
       </c>
@@ -3813,189 +3834,189 @@
         <v>-0.1014276432535158</v>
       </c>
       <c r="C164">
-        <v>-0.02637331277918152</v>
+        <v>-2.6373312779181521E-2</v>
       </c>
       <c r="D164">
-        <v>-0.04342183997519747</v>
+        <v>-4.3421839975197468E-2</v>
       </c>
       <c r="E164">
-        <v>-0.01956496086711199</v>
+        <v>-1.9564960867111989E-2</v>
       </c>
       <c r="F164">
-        <v>0.03153653048833031</v>
+        <v>3.1536530488330307E-2</v>
       </c>
       <c r="G164">
-        <v>-0.03742175879432115</v>
+        <v>-3.742175879432115E-2</v>
       </c>
       <c r="H164">
-        <v>-0.02441233268440683</v>
+        <v>-2.4412332684406832E-2</v>
       </c>
       <c r="I164">
-        <v>-0.03984699874902321</v>
+        <v>-3.9846998749023213E-2</v>
       </c>
       <c r="J164">
-        <v>-0.05030956675951281</v>
+        <v>-5.0309566759512807E-2</v>
       </c>
       <c r="K164">
-        <v>-0.03782292241473273</v>
+        <v>-3.7822922414732729E-2</v>
       </c>
       <c r="L164">
-        <v>0.02089550164217887</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
+        <v>2.0895501642178869E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44712</v>
       </c>
       <c r="B165">
-        <v>-0.02316453701850863</v>
+        <v>-2.3164537018508631E-2</v>
       </c>
       <c r="C165">
-        <v>0.01059088988677262</v>
+        <v>1.059088988677262E-2</v>
       </c>
       <c r="D165">
-        <v>-0.008901736375681611</v>
+        <v>-8.9017363756816112E-3</v>
       </c>
       <c r="E165">
-        <v>0.007292372938762826</v>
+        <v>7.2923729387628262E-3</v>
       </c>
       <c r="F165">
-        <v>-0.002079654083663552</v>
+        <v>-2.079654083663552E-3</v>
       </c>
       <c r="G165">
-        <v>0.000614857925655886</v>
+        <v>6.1485792565588605E-4</v>
       </c>
       <c r="H165">
-        <v>-0.01041126209320576</v>
+        <v>-1.041126209320576E-2</v>
       </c>
       <c r="I165">
-        <v>-0.04293967551118832</v>
+        <v>-4.2939675511188317E-2</v>
       </c>
       <c r="J165">
-        <v>-0.002913132411905959</v>
+        <v>-2.9131324119059591E-3</v>
       </c>
       <c r="K165">
-        <v>-0.0007635487692414926</v>
+        <v>-7.6354876924149262E-4</v>
       </c>
       <c r="L165">
-        <v>-0.003250503604976815</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+        <v>-3.2505036049768148E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44742</v>
       </c>
       <c r="B166">
-        <v>-0.09518090571241469</v>
+        <v>-9.5180905712414693E-2</v>
       </c>
       <c r="C166">
-        <v>-0.05857809836148086</v>
+        <v>-5.8578098361480861E-2</v>
       </c>
       <c r="D166">
-        <v>-0.05213552986037904</v>
+        <v>-5.2135529860379039E-2</v>
       </c>
       <c r="E166">
-        <v>-0.05299334086657886</v>
+        <v>-5.2993340866578857E-2</v>
       </c>
       <c r="F166">
-        <v>-0.04442562504298363</v>
+        <v>-4.4425625042983627E-2</v>
       </c>
       <c r="G166">
-        <v>-0.04751481139115858</v>
+        <v>-4.7514811391158582E-2</v>
       </c>
       <c r="H166">
-        <v>-0.02347325560910066</v>
+        <v>-2.3473255609100661E-2</v>
       </c>
       <c r="I166">
-        <v>-0.08024648733174816</v>
+        <v>-8.0246487331748162E-2</v>
       </c>
       <c r="J166">
-        <v>-0.02779419762443465</v>
+        <v>-2.7794197624434649E-2</v>
       </c>
       <c r="K166">
-        <v>-0.05003290972395374</v>
+        <v>-5.0032909723953738E-2</v>
       </c>
       <c r="L166">
-        <v>-0.08701752016342292</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+        <v>-8.7017520163422915E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44773</v>
       </c>
       <c r="B167">
-        <v>0.08229185219861478</v>
+        <v>8.2291852198614776E-2</v>
       </c>
       <c r="C167">
-        <v>0.01997339292411018</v>
+        <v>1.997339292411018E-2</v>
       </c>
       <c r="D167">
-        <v>0.03378844745390151</v>
+        <v>3.3788447453901513E-2</v>
       </c>
       <c r="E167">
-        <v>0.01725122970990893</v>
+        <v>1.725122970990893E-2</v>
       </c>
       <c r="F167">
-        <v>-0.04442562504298363</v>
+        <v>-4.4425625042983627E-2</v>
       </c>
       <c r="G167">
-        <v>0.02939915979673387</v>
+        <v>2.9399159796733871E-2</v>
       </c>
       <c r="H167">
-        <v>0.01801348763338945</v>
+        <v>1.801348763338945E-2</v>
       </c>
       <c r="I167">
-        <v>0.07000216539710033</v>
+        <v>7.000216539710033E-2</v>
       </c>
       <c r="J167">
-        <v>0.03259075630478259</v>
+        <v>3.2590756304782587E-2</v>
       </c>
       <c r="K167">
-        <v>0.03620516014517126</v>
+        <v>3.6205160145171257E-2</v>
       </c>
       <c r="L167">
-        <v>-0.08701752016342292</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>-8.7017520163422915E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44804</v>
       </c>
       <c r="B168">
-        <v>-0.05139429068293134</v>
+        <v>-5.1394290682931339E-2</v>
       </c>
       <c r="C168">
-        <v>-0.02093764665095366</v>
+        <v>-2.093764665095366E-2</v>
       </c>
       <c r="D168">
-        <v>-0.01680179565799229</v>
+        <v>-1.680179565799229E-2</v>
       </c>
       <c r="E168">
-        <v>-0.01745908178815515</v>
+        <v>-1.745908178815515E-2</v>
       </c>
       <c r="F168">
-        <v>-0.008402530616092833</v>
+        <v>-8.4025306160928331E-3</v>
       </c>
       <c r="G168">
-        <v>-0.02650233908985763</v>
+        <v>-2.6502339089857632E-2</v>
       </c>
       <c r="H168">
-        <v>-0.003490543454862206</v>
+        <v>-3.4905434548622061E-3</v>
       </c>
       <c r="I168">
-        <v>-0.05662432251690931</v>
+        <v>-5.6624322516909312E-2</v>
       </c>
       <c r="J168">
-        <v>-0.009736669168795144</v>
+        <v>-9.7366691687951444E-3</v>
       </c>
       <c r="K168">
-        <v>-0.01727981138962308</v>
+        <v>-1.7279811389623079E-2</v>
       </c>
       <c r="L168">
-        <v>-0.02211676486743818</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
+        <v>-2.2116764867438181E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44834</v>
       </c>
@@ -4003,1288 +4024,1288 @@
         <v>-0.1075230081084277</v>
       </c>
       <c r="C169">
-        <v>-0.05339282056790244</v>
+        <v>-5.3392820567902441E-2</v>
       </c>
       <c r="D169">
-        <v>-0.05849893414256448</v>
+        <v>-5.8498934142564477E-2</v>
       </c>
       <c r="E169">
-        <v>-0.04663208123702692</v>
+        <v>-4.6632081237026918E-2</v>
       </c>
       <c r="F169">
-        <v>-0.02300401733212622</v>
+        <v>-2.300401733212622E-2</v>
       </c>
       <c r="G169">
-        <v>-0.05027779284255481</v>
+        <v>-5.0277792842554812E-2</v>
       </c>
       <c r="H169">
-        <v>-0.02539337139042564</v>
+        <v>-2.5393371390425641E-2</v>
       </c>
       <c r="I169">
-        <v>-0.1205132399950909</v>
+        <v>-0.12051323999509091</v>
       </c>
       <c r="J169">
-        <v>-0.02972221443769466</v>
+        <v>-2.9722214437694659E-2</v>
       </c>
       <c r="K169">
-        <v>-0.05684374467092786</v>
+        <v>-5.6843744670927857E-2</v>
       </c>
       <c r="L169">
-        <v>-0.07810695452329357</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+        <v>-7.8106954523293567E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>44865</v>
       </c>
       <c r="B170">
-        <v>0.05025872193461246</v>
+        <v>5.0258721934612463E-2</v>
       </c>
       <c r="C170">
-        <v>0.04919501686900405</v>
+        <v>4.919501686900405E-2</v>
       </c>
       <c r="D170">
-        <v>0.03499301539884057</v>
+        <v>3.4993015398840567E-2</v>
       </c>
       <c r="E170">
-        <v>0.03579534156825688</v>
+        <v>3.579534156825688E-2</v>
       </c>
       <c r="F170">
-        <v>0.01051142886182496</v>
+        <v>1.051142886182496E-2</v>
       </c>
       <c r="G170">
-        <v>0.03366503664159724</v>
+        <v>3.3665036641597243E-2</v>
       </c>
       <c r="H170">
-        <v>0.02058049050929773</v>
+        <v>2.0580490509297729E-2</v>
       </c>
       <c r="I170">
-        <v>0.02386333681035424</v>
+        <v>2.3863336810354241E-2</v>
       </c>
       <c r="J170">
-        <v>0.01454936420852883</v>
+        <v>1.454936420852883E-2</v>
       </c>
       <c r="K170">
-        <v>0.02712107421358519</v>
+        <v>2.712107421358519E-2</v>
       </c>
       <c r="L170">
-        <v>0.07048335428010505</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+        <v>7.0483354280105048E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>44895</v>
       </c>
       <c r="B171">
-        <v>0.04552109541450317</v>
+        <v>4.5521095414503172E-2</v>
       </c>
       <c r="C171">
-        <v>0.03282824498711708</v>
+        <v>3.2828244987117082E-2</v>
       </c>
       <c r="D171">
-        <v>0.02537834192200785</v>
+        <v>2.5378341922007851E-2</v>
       </c>
       <c r="E171">
-        <v>0.02579620679164941</v>
+        <v>2.5796206791649411E-2</v>
       </c>
       <c r="F171">
-        <v>0.0188891923254739</v>
+        <v>1.88891923254739E-2</v>
       </c>
       <c r="G171">
-        <v>0.03752892068968919</v>
+        <v>3.7528920689689188E-2</v>
       </c>
       <c r="H171">
-        <v>0.007369342594737567</v>
+        <v>7.3693425947375666E-3</v>
       </c>
       <c r="I171">
-        <v>0.05739598890380618</v>
+        <v>5.7395988903806178E-2</v>
       </c>
       <c r="J171">
-        <v>0.02302625251244965</v>
+        <v>2.3026252512449649E-2</v>
       </c>
       <c r="K171">
-        <v>0.03513237108459253</v>
+        <v>3.513237108459253E-2</v>
       </c>
       <c r="L171">
-        <v>0.03326551572845025</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+        <v>3.3265515728450247E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>44926</v>
       </c>
       <c r="B172">
-        <v>-0.06681351214817362</v>
+        <v>-6.6813512148173618E-2</v>
       </c>
       <c r="C172">
-        <v>-0.01962188099059266</v>
+        <v>-1.9621880990592661E-2</v>
       </c>
       <c r="D172">
-        <v>-0.02832496263658958</v>
+        <v>-2.8324962636589578E-2</v>
       </c>
       <c r="E172">
-        <v>-0.0140987519725246</v>
+        <v>-1.40987519725246E-2</v>
       </c>
       <c r="F172">
-        <v>0.0188891923254739</v>
+        <v>1.88891923254739E-2</v>
       </c>
       <c r="G172">
-        <v>-0.01824282490952042</v>
+        <v>-1.8242824909520419E-2</v>
       </c>
       <c r="H172">
-        <v>-0.01226184424786488</v>
+        <v>-1.2261844247864881E-2</v>
       </c>
       <c r="I172">
-        <v>-0.04332161730637096</v>
+        <v>-4.3321617306370963E-2</v>
       </c>
       <c r="J172">
-        <v>-0.01019956085904119</v>
+        <v>-1.019956085904119E-2</v>
       </c>
       <c r="K172">
-        <v>-0.02003001055048308</v>
+        <v>-2.003001055048308E-2</v>
       </c>
       <c r="L172">
-        <v>0.03326551572845025</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+        <v>3.3265515728450247E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44957</v>
       </c>
       <c r="B173">
-        <v>0.06817329116169826</v>
+        <v>6.8173291161698263E-2</v>
       </c>
       <c r="C173">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D173">
-        <v>0.04339386418596886</v>
+        <v>4.3393864185968863E-2</v>
       </c>
       <c r="E173">
-        <v>0.03127133798174588</v>
+        <v>3.1271337981745882E-2</v>
       </c>
       <c r="F173">
-        <v>0.01136163309195333</v>
+        <v>1.136163309195333E-2</v>
       </c>
       <c r="G173">
-        <v>0.02630662422473619</v>
+        <v>2.6306624224736189E-2</v>
       </c>
       <c r="H173">
-        <v>0.03140088617162688</v>
+        <v>3.1400886171626882E-2</v>
       </c>
       <c r="I173">
-        <v>0.07740722850566993</v>
+        <v>7.7407228505669931E-2</v>
       </c>
       <c r="J173">
-        <v>0.03469965978609009</v>
+        <v>3.469965978609009E-2</v>
       </c>
       <c r="K173">
-        <v>0.04334935380344216</v>
+        <v>4.334935380344216E-2</v>
       </c>
       <c r="L173">
-        <v>0.03429189510815014</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
+        <v>3.4291895108150137E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>44985</v>
       </c>
       <c r="B174">
-        <v>-0.03103275455700026</v>
+        <v>-3.1032754557000261E-2</v>
       </c>
       <c r="C174">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D174">
-        <v>-0.01543803094809827</v>
+        <v>-1.543803094809827E-2</v>
       </c>
       <c r="E174">
-        <v>-0.02184432435257512</v>
+        <v>-2.184432435257512E-2</v>
       </c>
       <c r="F174">
-        <v>-0.02349583917893532</v>
+        <v>-2.3495839178935319E-2</v>
       </c>
       <c r="G174">
-        <v>-0.01656038546041544</v>
+        <v>-1.6560385460415439E-2</v>
       </c>
       <c r="H174">
-        <v>-0.002869497928019226</v>
+        <v>-2.8694979280192261E-3</v>
       </c>
       <c r="I174">
-        <v>-0.04844056772125713</v>
+        <v>-4.8440567721257127E-2</v>
       </c>
       <c r="J174">
-        <v>-0.004578080494418027</v>
+        <v>-4.5780804944180273E-3</v>
       </c>
       <c r="K174">
-        <v>-0.01977868958207383</v>
+        <v>-1.9778689582073829E-2</v>
       </c>
       <c r="L174">
-        <v>-0.0253897110808359</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+        <v>-2.5389711080835899E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>45016</v>
       </c>
       <c r="B175">
-        <v>-0.03103275455700026</v>
+        <v>-3.1032754557000261E-2</v>
       </c>
       <c r="C175">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D175">
-        <v>0.0007398528289019592</v>
+        <v>7.3985282890195916E-4</v>
       </c>
       <c r="E175">
-        <v>-0.0001319094519446073</v>
+        <v>-1.3190945194460729E-4</v>
       </c>
       <c r="F175">
-        <v>0.004433190602517834</v>
+        <v>4.4331906025178343E-3</v>
       </c>
       <c r="G175">
-        <v>0.01330512909449296</v>
+        <v>1.3305129094492959E-2</v>
       </c>
       <c r="H175">
-        <v>-0.01195994801802467</v>
+        <v>-1.195994801802467E-2</v>
       </c>
       <c r="I175">
-        <v>-0.03732423353141257</v>
+        <v>-3.7324233531412572E-2</v>
       </c>
       <c r="J175">
-        <v>-0.009359210077617463</v>
+        <v>-9.3592100776174626E-3</v>
       </c>
       <c r="K175">
-        <v>-0.01559877920635508</v>
+        <v>-1.5598779206355081E-2</v>
       </c>
       <c r="L175">
-        <v>-0.006781353548751748</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
+        <v>-6.7813535487517484E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>45046</v>
       </c>
       <c r="B176">
-        <v>-0.007849269722953283</v>
+        <v>-7.849269722953283E-3</v>
       </c>
       <c r="C176">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D176">
-        <v>0.0007398528289019592</v>
+        <v>7.3985282890195916E-4</v>
       </c>
       <c r="E176">
-        <v>-0.008007238159543356</v>
+        <v>-8.0072381595433558E-3</v>
       </c>
       <c r="F176">
-        <v>0.004433190602517834</v>
+        <v>4.4331906025178343E-3</v>
       </c>
       <c r="G176">
-        <v>0.006868239272415399</v>
+        <v>6.8682392724153992E-3</v>
       </c>
       <c r="H176">
-        <v>0.0002884943678264762</v>
+        <v>2.8849436782647618E-4</v>
       </c>
       <c r="I176">
-        <v>0.009465809991190996</v>
+        <v>9.465809991190996E-3</v>
       </c>
       <c r="J176">
-        <v>0.004935080469054168</v>
+        <v>4.9350804690541676E-3</v>
       </c>
       <c r="K176">
-        <v>-0.002920622342336986</v>
+        <v>-2.9206223423369859E-3</v>
       </c>
       <c r="L176">
-        <v>-0.006781353548751748</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
+        <v>-6.7813535487517484E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>45077</v>
       </c>
       <c r="B177">
-        <v>0.004140247959098975</v>
+        <v>4.1402479590989753E-3</v>
       </c>
       <c r="C177">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D177">
-        <v>-0.008398911080942047</v>
+        <v>-8.3989110809420467E-3</v>
       </c>
       <c r="E177">
-        <v>-0.02360084952279138</v>
+        <v>-2.360084952279138E-2</v>
       </c>
       <c r="F177">
-        <v>-0.0257722506613458</v>
+        <v>-2.5772250661345801E-2</v>
       </c>
       <c r="G177">
-        <v>-0.02059700997948556</v>
+        <v>-2.0597009979485562E-2</v>
       </c>
       <c r="H177">
-        <v>-0.00700987180724733</v>
+        <v>-7.0098718072473297E-3</v>
       </c>
       <c r="I177">
-        <v>-0.04375991610436705</v>
+        <v>-4.3759916104367053E-2</v>
       </c>
       <c r="J177">
-        <v>0.00716092135051673</v>
+        <v>7.16092135051673E-3</v>
       </c>
       <c r="K177">
-        <v>-0.02002983671033406</v>
+        <v>-2.0029836710334061E-2</v>
       </c>
       <c r="L177">
-        <v>-0.02526279499978011</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
+        <v>-2.5262794999780111E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>45107</v>
       </c>
       <c r="B178">
-        <v>0.05545913223243895</v>
+        <v>5.5459132232438951E-2</v>
       </c>
       <c r="C178">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D178">
-        <v>0.0291972115071366</v>
+        <v>2.9197211507136601E-2</v>
       </c>
       <c r="E178">
-        <v>0.02645329994576737</v>
+        <v>2.645329994576737E-2</v>
       </c>
       <c r="F178">
-        <v>0.008580377357790082</v>
+        <v>8.5803773577900824E-3</v>
       </c>
       <c r="G178">
-        <v>0.02538419815578803</v>
+        <v>2.5384198155788028E-2</v>
       </c>
       <c r="H178">
-        <v>0.01534251835487119</v>
+        <v>1.5342518354871189E-2</v>
       </c>
       <c r="I178">
-        <v>0.03303883182187096</v>
+        <v>3.3038831821870958E-2</v>
       </c>
       <c r="J178">
-        <v>0.02536583589485993</v>
+        <v>2.5365835894859929E-2</v>
       </c>
       <c r="K178">
-        <v>0.02587364862887969</v>
+        <v>2.587364862887969E-2</v>
       </c>
       <c r="L178">
-        <v>0.04998299666560509</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+        <v>4.9982996665605087E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>45138</v>
       </c>
       <c r="B179">
-        <v>0.02267478729418296</v>
+        <v>2.2674787294182961E-2</v>
       </c>
       <c r="C179">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D179">
-        <v>0.01869576528762518</v>
+        <v>1.869576528762518E-2</v>
       </c>
       <c r="E179">
-        <v>0.01859506201029692</v>
+        <v>1.8595062010296919E-2</v>
       </c>
       <c r="F179">
-        <v>0.03039585122080984</v>
+        <v>3.0395851220809841E-2</v>
       </c>
       <c r="G179">
-        <v>0.01141224618249307</v>
+        <v>1.141224618249307E-2</v>
       </c>
       <c r="H179">
-        <v>0.01128401072581335</v>
+        <v>1.1284010725813349E-2</v>
       </c>
       <c r="I179">
-        <v>0.02918517712884529</v>
+        <v>2.9185177128845292E-2</v>
       </c>
       <c r="J179">
-        <v>0.006742008436360782</v>
+        <v>6.7420084363607824E-3</v>
       </c>
       <c r="K179">
-        <v>0.02235780258495393</v>
+        <v>2.2357802584953929E-2</v>
       </c>
       <c r="L179">
-        <v>0.02049895119338393</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
+        <v>2.0498951193383928E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>45169</v>
       </c>
       <c r="B180">
-        <v>-0.03760296559721773</v>
+        <v>-3.7602965597217729E-2</v>
       </c>
       <c r="C180">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D180">
-        <v>-0.02520970098597964</v>
+        <v>-2.520970098597964E-2</v>
       </c>
       <c r="E180">
-        <v>-0.01340954720952262</v>
+        <v>-1.3409547209522621E-2</v>
       </c>
       <c r="F180">
-        <v>-0.007777668856600092</v>
+        <v>-7.7776688566000918E-3</v>
       </c>
       <c r="G180">
-        <v>-0.01536267049273625</v>
+        <v>-1.536267049273625E-2</v>
       </c>
       <c r="H180">
-        <v>-0.02004399653760986</v>
+        <v>-2.0043996537609861E-2</v>
       </c>
       <c r="I180">
-        <v>-0.03315436423888822</v>
+        <v>-3.315436423888822E-2</v>
       </c>
       <c r="J180">
-        <v>-0.00763736323028465</v>
+        <v>-7.6373632302846502E-3</v>
       </c>
       <c r="K180">
-        <v>-0.02208907365945325</v>
+        <v>-2.208907365945325E-2</v>
       </c>
       <c r="L180">
-        <v>-0.02216799296300782</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
+        <v>-2.216799296300782E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>45199</v>
       </c>
       <c r="B181">
-        <v>-0.0598916754511091</v>
+        <v>-5.98916754511091E-2</v>
       </c>
       <c r="C181">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D181">
-        <v>-0.02651861641114665</v>
+        <v>-2.651861641114665E-2</v>
       </c>
       <c r="E181">
-        <v>-0.01889807974533782</v>
+        <v>-1.8898079745337821E-2</v>
       </c>
       <c r="F181">
-        <v>-0.007777668856600092</v>
+        <v>-7.7776688566000918E-3</v>
       </c>
       <c r="G181">
-        <v>-0.02635292927109507</v>
+        <v>-2.6352929271095071E-2</v>
       </c>
       <c r="H181">
-        <v>-0.01336077674836447</v>
+        <v>-1.3360776748364471E-2</v>
       </c>
       <c r="I181">
-        <v>-0.06060540844377858</v>
+        <v>-6.0605408443778583E-2</v>
       </c>
       <c r="J181">
-        <v>-0.01900027929311998</v>
+        <v>-1.9000279293119982E-2</v>
       </c>
       <c r="K181">
-        <v>-0.02558414466731954</v>
+        <v>-2.558414466731954E-2</v>
       </c>
       <c r="L181">
-        <v>-0.02216799296300782</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
+        <v>-2.216799296300782E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>45230</v>
       </c>
       <c r="B182">
-        <v>-0.05141377406664865</v>
+        <v>-5.1413774066648647E-2</v>
       </c>
       <c r="C182">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D182">
-        <v>-0.03033291893044256</v>
+        <v>-3.033291893044256E-2</v>
       </c>
       <c r="E182">
-        <v>-0.01728474953263279</v>
+        <v>-1.7284749532632791E-2</v>
       </c>
       <c r="F182">
-        <v>-0.005715729828913808</v>
+        <v>-5.7157298289138084E-3</v>
       </c>
       <c r="G182">
-        <v>-0.02006217012567643</v>
+        <v>-2.0062170125676428E-2</v>
       </c>
       <c r="H182">
-        <v>-0.02637335304831355</v>
+        <v>-2.637335304831355E-2</v>
       </c>
       <c r="I182">
-        <v>-0.04519964474607172</v>
+        <v>-4.5199644746071722E-2</v>
       </c>
       <c r="J182">
-        <v>-0.01343241271714577</v>
+        <v>-1.3432412717145769E-2</v>
       </c>
       <c r="K182">
-        <v>-0.03451060688808131</v>
+        <v>-3.4510606888081309E-2</v>
       </c>
       <c r="L182">
-        <v>-0.03648016956981499</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
+        <v>-3.6480169569814987E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>45260</v>
       </c>
       <c r="B183">
-        <v>0.09073274437167173</v>
+        <v>9.0732744371671725E-2</v>
       </c>
       <c r="C183">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D183">
-        <v>0.04327260350899391</v>
+        <v>4.3272603508993909E-2</v>
       </c>
       <c r="E183">
-        <v>0.02518388096878015</v>
+        <v>2.5183880968780149E-2</v>
       </c>
       <c r="F183">
-        <v>-0.003259688538828584</v>
+        <v>-3.2596885388285839E-3</v>
       </c>
       <c r="G183">
-        <v>0.03821945243306837</v>
+        <v>3.8219452433068367E-2</v>
       </c>
       <c r="H183">
-        <v>0.01062753252574709</v>
+        <v>1.062753252574709E-2</v>
       </c>
       <c r="I183">
-        <v>0.09671950674698004</v>
+        <v>9.6719506746980044E-2</v>
       </c>
       <c r="J183">
-        <v>0.03025208102854517</v>
+        <v>3.025208102854517E-2</v>
       </c>
       <c r="K183">
-        <v>0.04304434873745989</v>
+        <v>4.3044348737459888E-2</v>
       </c>
       <c r="L183">
-        <v>0.07481544787476009</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+        <v>7.4815447874760091E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>45291</v>
       </c>
       <c r="B184">
-        <v>0.04187032526563308</v>
+        <v>4.1870325265633078E-2</v>
       </c>
       <c r="C184">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D184">
-        <v>0.02091002285840788</v>
+        <v>2.091002285840788E-2</v>
       </c>
       <c r="E184">
-        <v>0.01584463242261818</v>
+        <v>1.5844632422618181E-2</v>
       </c>
       <c r="F184">
-        <v>-0.003259688538828584</v>
+        <v>-3.2596885388285839E-3</v>
       </c>
       <c r="G184">
-        <v>0.02194214924221132</v>
+        <v>2.1942149242211322E-2</v>
       </c>
       <c r="H184">
-        <v>0.0249126965402858</v>
+        <v>2.49126965402858E-2</v>
       </c>
       <c r="I184">
-        <v>0.07452845864448451</v>
+        <v>7.4528458644484513E-2</v>
       </c>
       <c r="J184">
-        <v>0.01967204123843581</v>
+        <v>1.9672041238435811E-2</v>
       </c>
       <c r="K184">
-        <v>0.03575775429123416</v>
+        <v>3.5757754291234158E-2</v>
       </c>
       <c r="L184">
-        <v>0.07481544787476009</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
+        <v>7.4815447874760091E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>45322</v>
       </c>
       <c r="B185">
-        <v>-0.004301200447757689</v>
+        <v>-4.3012004477576892E-3</v>
       </c>
       <c r="C185">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D185">
-        <v>-0.01469773219875133</v>
+        <v>-1.4697732198751329E-2</v>
       </c>
       <c r="E185">
-        <v>-0.01468102247264133</v>
+        <v>-1.4681022472641331E-2</v>
       </c>
       <c r="F185">
-        <v>0.0005222759203593388</v>
+        <v>5.2227592035933876E-4</v>
       </c>
       <c r="G185">
-        <v>-0.004873335630371864</v>
+        <v>-4.8733356303718644E-3</v>
       </c>
       <c r="H185">
-        <v>-0.0229473844988015</v>
+        <v>-2.2947384498801501E-2</v>
       </c>
       <c r="I185">
-        <v>-0.04172886944480239</v>
+        <v>-4.1728869444802391E-2</v>
       </c>
       <c r="J185">
-        <v>-0.01177247584858248</v>
+        <v>-1.177247584858248E-2</v>
       </c>
       <c r="K185">
-        <v>-0.0158306060150211</v>
+        <v>-1.5830606015021099E-2</v>
       </c>
       <c r="L185">
-        <v>0.01317552977554457</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
+        <v>1.317552977554457E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>45351</v>
       </c>
       <c r="B186">
-        <v>0.04784457211293534</v>
+        <v>4.7844572112935337E-2</v>
       </c>
       <c r="C186">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D186">
-        <v>0.01555962517815259</v>
+        <v>1.555962517815259E-2</v>
       </c>
       <c r="E186">
-        <v>0.006865563951840224</v>
+        <v>6.8655639518402237E-3</v>
       </c>
       <c r="F186">
-        <v>-0.0084443110448751</v>
+        <v>-8.4443110448750996E-3</v>
       </c>
       <c r="G186">
-        <v>0.004727699979438812</v>
+        <v>4.7276999794388123E-3</v>
       </c>
       <c r="H186">
-        <v>0.01153563969706648</v>
+        <v>1.153563969706648E-2</v>
       </c>
       <c r="I186">
-        <v>-0.0001582958637245121</v>
+        <v>-1.5829586372451211E-4</v>
       </c>
       <c r="J186">
-        <v>0.00708415504645601</v>
+        <v>7.08415504645601E-3</v>
       </c>
       <c r="K186">
-        <v>0.01104587340907895</v>
+        <v>1.1045873409078951E-2</v>
       </c>
       <c r="L186">
-        <v>0.05424014970077867</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
+        <v>5.4240149700778673E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>45382</v>
       </c>
       <c r="B187">
-        <v>0.008814347500812732</v>
+        <v>8.8143475008127317E-3</v>
       </c>
       <c r="C187">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D187">
-        <v>0.008773234567025282</v>
+        <v>8.7732345670252822E-3</v>
       </c>
       <c r="E187">
-        <v>0.008159477051885279</v>
+        <v>8.1594770518852791E-3</v>
       </c>
       <c r="F187">
-        <v>-0.0084443110448751</v>
+        <v>-8.4443110448750996E-3</v>
       </c>
       <c r="G187">
-        <v>0.01252038827558486</v>
+        <v>1.2520388275584861E-2</v>
       </c>
       <c r="H187">
-        <v>0.002317678537442247</v>
+        <v>2.3176785374422471E-3</v>
       </c>
       <c r="I187">
-        <v>0.02074051523482538</v>
+        <v>2.0740515234825379E-2</v>
       </c>
       <c r="J187">
-        <v>0.008283481173020069</v>
+        <v>8.2834811730200693E-3</v>
       </c>
       <c r="K187">
-        <v>0.01254400097005182</v>
+        <v>1.254400097005182E-2</v>
       </c>
       <c r="L187">
-        <v>0.05424014970077867</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
+        <v>5.4240149700778673E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>45412</v>
       </c>
       <c r="B188">
-        <v>-0.06105161904391119</v>
+        <v>-6.1051619043911189E-2</v>
       </c>
       <c r="C188">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D188">
-        <v>-0.0260967664354827</v>
+        <v>-2.6096766435482699E-2</v>
       </c>
       <c r="E188">
-        <v>-0.0237391144468923</v>
+        <v>-2.37391144468923E-2</v>
       </c>
       <c r="F188">
-        <v>0.01886741396200294</v>
+        <v>1.8867413962002939E-2</v>
       </c>
       <c r="G188">
-        <v>-0.02082686010856354</v>
+        <v>-2.0826860108563539E-2</v>
       </c>
       <c r="H188">
-        <v>-0.01801166561999609</v>
+        <v>-1.8011665619996089E-2</v>
       </c>
       <c r="I188">
-        <v>-0.05968413236104706</v>
+        <v>-5.9684132361047061E-2</v>
       </c>
       <c r="J188">
-        <v>-0.01820611564937194</v>
+        <v>-1.820611564937194E-2</v>
       </c>
       <c r="K188">
-        <v>-0.02667191152463393</v>
+        <v>-2.667191152463393E-2</v>
       </c>
       <c r="L188">
-        <v>-0.04343053208304067</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
+        <v>-4.3430532083040672E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>45443</v>
       </c>
       <c r="B189">
-        <v>0.03472345692829587</v>
+        <v>3.472345692829587E-2</v>
       </c>
       <c r="C189">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D189">
-        <v>0.02040004457364811</v>
+        <v>2.0400044573648111E-2</v>
       </c>
       <c r="E189">
-        <v>-0.002138712604815839</v>
+        <v>-2.138712604815839E-3</v>
       </c>
       <c r="F189">
-        <v>0.007058363857888053</v>
+        <v>7.0583638578880529E-3</v>
       </c>
       <c r="G189">
-        <v>0.01372060295708065</v>
+        <v>1.3720602957080649E-2</v>
       </c>
       <c r="H189">
-        <v>0.01495304417818769</v>
+        <v>1.4953044178187691E-2</v>
       </c>
       <c r="I189">
-        <v>0.02978363461708258</v>
+        <v>2.9783634617082579E-2</v>
       </c>
       <c r="J189">
-        <v>0.0115656111500608</v>
+        <v>1.1565611150060801E-2</v>
       </c>
       <c r="K189">
-        <v>0.01109049068106257</v>
+        <v>1.1090490681062571E-2</v>
       </c>
       <c r="L189">
-        <v>0.03492188205890429</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
+        <v>3.4921882058904292E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>45473</v>
       </c>
       <c r="B190">
-        <v>0.03472345692829587</v>
+        <v>3.472345692829587E-2</v>
       </c>
       <c r="C190">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D190">
-        <v>0.001904361896344038</v>
+        <v>1.9043618963440381E-3</v>
       </c>
       <c r="E190">
-        <v>-0.005374414050457893</v>
+        <v>-5.3744140504578932E-3</v>
       </c>
       <c r="F190">
-        <v>0.007058363857888053</v>
+        <v>7.0583638578880529E-3</v>
       </c>
       <c r="G190">
-        <v>-0.006547935176171799</v>
+        <v>-6.5479351761717989E-3</v>
       </c>
       <c r="H190">
-        <v>-0.008508109081096473</v>
+        <v>-8.5081090810964731E-3</v>
       </c>
       <c r="I190">
-        <v>0.004431105663629727</v>
+        <v>4.431105663629727E-3</v>
       </c>
       <c r="J190">
-        <v>-0.0005676186423034383</v>
+        <v>-5.6761864230343829E-4</v>
       </c>
       <c r="K190">
-        <v>-0.007792194758186879</v>
+        <v>-7.7921947581868793E-3</v>
       </c>
       <c r="L190">
-        <v>0.03492188205890429</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+        <v>3.4921882058904292E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>45504</v>
       </c>
       <c r="B191">
-        <v>0.03472345692829587</v>
+        <v>3.472345692829587E-2</v>
       </c>
       <c r="C191">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D191">
-        <v>0.01491773307009679</v>
+        <v>1.491773307009679E-2</v>
       </c>
       <c r="E191">
-        <v>0.01357885554758181</v>
+        <v>1.3578855547581811E-2</v>
       </c>
       <c r="F191">
-        <v>-0.01815782369465766</v>
+        <v>-1.8157823694657661E-2</v>
       </c>
       <c r="G191">
-        <v>0.01210195103166497</v>
+        <v>1.2101951031664971E-2</v>
       </c>
       <c r="H191">
-        <v>0.02204120892070521</v>
+        <v>2.204120892070521E-2</v>
       </c>
       <c r="I191">
-        <v>0.05428332047855498</v>
+        <v>5.4283320478554983E-2</v>
       </c>
       <c r="J191">
-        <v>-0.003893676843742077</v>
+        <v>-3.8936768437420771E-3</v>
       </c>
       <c r="K191">
-        <v>0.02632656664586679</v>
+        <v>2.632656664586679E-2</v>
       </c>
       <c r="L191">
-        <v>0.006903560360092672</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+        <v>6.9035603600926723E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>45535</v>
       </c>
       <c r="B192">
-        <v>0.005681148956651089</v>
+        <v>5.6811489566510887E-3</v>
       </c>
       <c r="C192">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D192">
-        <v>0.003673556806162067</v>
+        <v>3.6735568061620669E-3</v>
       </c>
       <c r="E192">
-        <v>-0.001333185464618839</v>
+        <v>-1.333185464618839E-3</v>
       </c>
       <c r="F192">
-        <v>-0.01815782369465766</v>
+        <v>-1.8157823694657661E-2</v>
       </c>
       <c r="G192">
-        <v>0.01033941441826862</v>
+        <v>1.0339414418268619E-2</v>
       </c>
       <c r="H192">
-        <v>-0.009024697247069204</v>
+        <v>-9.0246972470692036E-3</v>
       </c>
       <c r="I192">
-        <v>0.04746336624781555</v>
+        <v>4.7463366247815553E-2</v>
       </c>
       <c r="J192">
-        <v>-0.007516976570526011</v>
+        <v>-7.5169765705260108E-3</v>
       </c>
       <c r="K192">
-        <v>0.005033941360816075</v>
+        <v>5.033941360816075E-3</v>
       </c>
       <c r="L192">
-        <v>0.006903560360092672</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+        <v>6.9035603600926723E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>45565</v>
       </c>
       <c r="B193">
-        <v>0.01108718868623735</v>
+        <v>1.1087188686237349E-2</v>
       </c>
       <c r="C193">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D193">
-        <v>0.006710214280033533</v>
+        <v>6.7102142800335328E-3</v>
       </c>
       <c r="E193">
-        <v>0.003597694026070816</v>
+        <v>3.5976940260708159E-3</v>
       </c>
       <c r="F193">
-        <v>0.01688000561495386</v>
+        <v>1.6880005614953859E-2</v>
       </c>
       <c r="G193">
-        <v>0.005216263231829905</v>
+        <v>5.2162632318299047E-3</v>
       </c>
       <c r="H193">
-        <v>-0.001530015323321016</v>
+        <v>-1.530015323321016E-3</v>
       </c>
       <c r="I193">
-        <v>0.02904598968467622</v>
+        <v>2.904598968467622E-2</v>
       </c>
       <c r="J193">
-        <v>-0.0005725525000480785</v>
+        <v>-5.7255250004807851E-4</v>
       </c>
       <c r="K193">
-        <v>0.01418364116499994</v>
+        <v>1.4183641164999939E-2</v>
       </c>
       <c r="L193">
-        <v>0.0111130913263987</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
+        <v>1.11130913263987E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>45596</v>
       </c>
       <c r="B194">
-        <v>-0.025105641928718</v>
+        <v>-2.5105641928718E-2</v>
       </c>
       <c r="C194">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D194">
-        <v>-0.01102613325118443</v>
+        <v>-1.102613325118443E-2</v>
       </c>
       <c r="E194">
-        <v>-0.007634438029226606</v>
+        <v>-7.6344380292266058E-3</v>
       </c>
       <c r="F194">
-        <v>-0.004420123691126859</v>
+        <v>-4.4201236911268586E-3</v>
       </c>
       <c r="G194">
-        <v>-0.02141488282342881</v>
+        <v>-2.1414882823428811E-2</v>
       </c>
       <c r="H194">
-        <v>-0.004550565387143893</v>
+        <v>-4.5505653871438928E-3</v>
       </c>
       <c r="I194">
-        <v>-0.04246254135194311</v>
+        <v>-4.2462541351943113E-2</v>
       </c>
       <c r="J194">
-        <v>-0.01472933491792731</v>
+        <v>-1.4729334917927311E-2</v>
       </c>
       <c r="K194">
-        <v>-0.01728615884674976</v>
+        <v>-1.728615884674976E-2</v>
       </c>
       <c r="L194">
-        <v>-0.01181791549973793</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
+        <v>-1.181791549973793E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>45626</v>
       </c>
       <c r="B195">
-        <v>0.05078190184019015</v>
+        <v>5.0781901840190151E-2</v>
       </c>
       <c r="C195">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D195">
-        <v>0.02594672419317741</v>
+        <v>2.5946724193177409E-2</v>
       </c>
       <c r="E195">
-        <v>-0.0001914622792108625</v>
+        <v>-1.9146227921086251E-4</v>
       </c>
       <c r="F195">
-        <v>-0.004420123691126859</v>
+        <v>-4.4201236911268586E-3</v>
       </c>
       <c r="G195">
-        <v>0.008031494260086286</v>
+        <v>8.031494260086286E-3</v>
       </c>
       <c r="H195">
-        <v>0.01771187604394953</v>
+        <v>1.7711876043949529E-2</v>
       </c>
       <c r="I195">
-        <v>0.0207259180146812</v>
+        <v>2.07259180146812E-2</v>
       </c>
       <c r="J195">
-        <v>0.03146349660030587</v>
+        <v>3.1463496600305868E-2</v>
       </c>
       <c r="K195">
-        <v>0.02306609617576685</v>
+        <v>2.306609617576685E-2</v>
       </c>
       <c r="L195">
-        <v>-0.01181791549973793</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
+        <v>-1.181791549973793E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>45657</v>
       </c>
       <c r="B196">
-        <v>-0.04517348951810458</v>
+        <v>-4.5173489518104577E-2</v>
       </c>
       <c r="C196">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D196">
-        <v>-0.02754955532410655</v>
+        <v>-2.7549555324106551E-2</v>
       </c>
       <c r="E196">
-        <v>-0.02322990981775633</v>
+        <v>-2.3229909817756331E-2</v>
       </c>
       <c r="F196">
-        <v>-0.0006220866328111953</v>
+        <v>-6.2208663281119526E-4</v>
       </c>
       <c r="G196">
-        <v>-0.02242689086273032</v>
+        <v>-2.2426890862730319E-2</v>
       </c>
       <c r="H196">
-        <v>-0.01354392137301791</v>
+        <v>-1.354392137301791E-2</v>
       </c>
       <c r="I196">
-        <v>-0.07105378224467984</v>
+        <v>-7.1053782244679842E-2</v>
       </c>
       <c r="J196">
-        <v>-0.01778727199522595</v>
+        <v>-1.7787271995225951E-2</v>
       </c>
       <c r="K196">
-        <v>-0.02465181160148937</v>
+        <v>-2.4651811601489371E-2</v>
       </c>
       <c r="L196">
-        <v>-0.0467715504874085</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
+        <v>-4.6771550487408498E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>45688</v>
       </c>
       <c r="B197">
-        <v>0.02273530449427403</v>
+        <v>2.2735304494274029E-2</v>
       </c>
       <c r="C197">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D197">
-        <v>0.009835841707870061</v>
+        <v>9.8358417078700609E-3</v>
       </c>
       <c r="E197">
-        <v>0.009952003999923541</v>
+        <v>9.9520039999235407E-3</v>
       </c>
       <c r="F197">
-        <v>0.01757649203769008</v>
+        <v>1.7576492037690079E-2</v>
       </c>
       <c r="G197">
-        <v>0.01542717524462434</v>
+        <v>1.5427175244624339E-2</v>
       </c>
       <c r="H197">
-        <v>0.006066345979111638</v>
+        <v>6.066345979111638E-3</v>
       </c>
       <c r="I197">
-        <v>0.0132340836590409</v>
+        <v>1.3234083659040901E-2</v>
       </c>
       <c r="J197">
-        <v>0.007153161499465388</v>
+        <v>7.1531614994653882E-3</v>
       </c>
       <c r="K197">
-        <v>0.01133907547029756</v>
+        <v>1.133907547029756E-2</v>
       </c>
       <c r="L197">
-        <v>0.03694616959589974</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
+        <v>3.694616959589974E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>45716</v>
       </c>
       <c r="B198">
-        <v>-0.04158792815944223</v>
+        <v>-4.1587928159442233E-2</v>
       </c>
       <c r="C198">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D198">
-        <v>-0.01000382309969521</v>
+        <v>-1.0003823099695211E-2</v>
       </c>
       <c r="E198">
-        <v>-0.007233534273847193</v>
+        <v>-7.233534273847193E-3</v>
       </c>
       <c r="F198">
-        <v>-0.004400930882128968</v>
+        <v>-4.4009308821289679E-3</v>
       </c>
       <c r="G198">
-        <v>-0.003134045326120769</v>
+        <v>-3.1340453261207691E-3</v>
       </c>
       <c r="H198">
-        <v>-0.01368995722008864</v>
+        <v>-1.3689957220088639E-2</v>
       </c>
       <c r="I198">
-        <v>0.02086427309348152</v>
+        <v>2.086427309348152E-2</v>
       </c>
       <c r="J198">
-        <v>-0.01168227874524237</v>
+        <v>-1.168227874524237E-2</v>
       </c>
       <c r="K198">
-        <v>-0.0164740258128199</v>
+        <v>-1.6474025812819901E-2</v>
       </c>
       <c r="L198">
-        <v>-0.02288096207078937</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
+        <v>-2.2880962070789369E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>45747</v>
       </c>
       <c r="B199">
-        <v>-0.07485610753304503</v>
+        <v>-7.485610753304503E-2</v>
       </c>
       <c r="C199">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D199">
-        <v>-0.01000382309969521</v>
+        <v>-1.0003823099695211E-2</v>
       </c>
       <c r="E199">
-        <v>-0.01294420088112122</v>
+        <v>-1.2944200881121221E-2</v>
       </c>
       <c r="F199">
-        <v>0.01373816170084983</v>
+        <v>1.373816170084983E-2</v>
       </c>
       <c r="G199">
-        <v>-0.01298797836998572</v>
+        <v>-1.298797836998572E-2</v>
       </c>
       <c r="H199">
-        <v>-0.01314942477846301</v>
+        <v>-1.3149424778463009E-2</v>
       </c>
       <c r="I199">
-        <v>-0.02598462673243061</v>
+        <v>-2.5984626732430609E-2</v>
       </c>
       <c r="J199">
-        <v>-0.02658402329688945</v>
+        <v>-2.6584023296889449E-2</v>
       </c>
       <c r="K199">
-        <v>-0.02033221804771907</v>
+        <v>-2.0332218047719071E-2</v>
       </c>
       <c r="L199">
-        <v>-0.05287099707285967</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
+        <v>-5.2870997072859673E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>45777</v>
       </c>
       <c r="B200">
-        <v>0.001776235718965828</v>
+        <v>1.776235718965828E-3</v>
       </c>
       <c r="C200">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D200">
-        <v>-0.004711094615870683</v>
+        <v>-4.7110946158706833E-3</v>
       </c>
       <c r="E200">
-        <v>-0.007778160990667138</v>
+        <v>-7.7781609906671378E-3</v>
       </c>
       <c r="F200">
-        <v>-0.02562298007965822</v>
+        <v>-2.5622980079658221E-2</v>
       </c>
       <c r="G200">
-        <v>0.003131645356815748</v>
+        <v>3.1316453568157481E-3</v>
       </c>
       <c r="H200">
-        <v>-0.00329178269946032</v>
+        <v>-3.29178269946032E-3</v>
       </c>
       <c r="I200">
-        <v>-0.007543667882574828</v>
+        <v>-7.5436678825748279E-3</v>
       </c>
       <c r="J200">
-        <v>-0.01574468895349195</v>
+        <v>-1.5744688953491948E-2</v>
       </c>
       <c r="K200">
-        <v>-0.001743475150767598</v>
+        <v>-1.743475150767598E-3</v>
       </c>
       <c r="L200">
-        <v>0.005769118331376</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
+        <v>5.7691183313759997E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>45808</v>
       </c>
       <c r="B201">
-        <v>0.05116817701414186</v>
+        <v>5.1168177014141857E-2</v>
       </c>
       <c r="C201">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D201">
-        <v>0.02123999234927419</v>
+        <v>2.1239992349274189E-2</v>
       </c>
       <c r="E201">
-        <v>0.004026997958944004</v>
+        <v>4.0269979589440041E-3</v>
       </c>
       <c r="F201">
-        <v>-0.02562298007965822</v>
+        <v>-2.5622980079658221E-2</v>
       </c>
       <c r="G201">
-        <v>0.01613812632296307</v>
+        <v>1.6138126322963069E-2</v>
       </c>
       <c r="H201">
-        <v>-0.0004688834387370367</v>
+        <v>-4.6888343873703668E-4</v>
       </c>
       <c r="I201">
-        <v>0.01466820205650798</v>
+        <v>1.4668202056507981E-2</v>
       </c>
       <c r="J201">
-        <v>0.02194627819237556</v>
+        <v>2.194627819237556E-2</v>
       </c>
       <c r="K201">
-        <v>0.02605278214648353</v>
+        <v>2.605278214648353E-2</v>
       </c>
       <c r="L201">
-        <v>0.005769118331376</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
+        <v>5.7691183313759997E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>45838</v>
       </c>
       <c r="B202">
-        <v>0.03469510857896319</v>
+        <v>3.4695108578963192E-2</v>
       </c>
       <c r="C202">
-        <v>0.03616061439326882</v>
+        <v>3.6160614393268821E-2</v>
       </c>
       <c r="D202">
-        <v>0.01895431769981292</v>
+        <v>1.8954317699812921E-2</v>
       </c>
       <c r="E202">
-        <v>0.01257282901915595</v>
+        <v>1.257282901915595E-2</v>
       </c>
       <c r="F202">
-        <v>0.01463098124850999</v>
+        <v>1.463098124850999E-2</v>
       </c>
       <c r="G202">
-        <v>0.0121557425582043</v>
+        <v>1.2155742558204299E-2</v>
       </c>
       <c r="H202">
-        <v>0.01291484719398924</v>
+        <v>1.291484719398924E-2</v>
       </c>
       <c r="I202">
-        <v>0.002656242897147104</v>
+        <v>2.6562428971471041E-3</v>
       </c>
       <c r="J202">
-        <v>0.01791376324968743</v>
+        <v>1.791376324968743E-2</v>
       </c>
       <c r="K202">
-        <v>0.01484242024426458</v>
+        <v>1.4842420244264579E-2</v>
       </c>
       <c r="L202">
-        <v>0.03048061665429734</v>
+        <v>3.0480616654297341E-2</v>
       </c>
     </row>
   </sheetData>
